--- a/B_OC_Calculators/OpenCoreCalcs.xlsx
+++ b/B_OC_Calculators/OpenCoreCalcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>CSR-Active-Config Calculator for macOS 10.11 to 12</t>
   </si>
@@ -98,124 +98,151 @@
     <t>HEX</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve">DEC (Bit </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Untrusted Kexts </t>
+  </si>
+  <si>
+    <t>Allow Unrestricted FileSystem</t>
+  </si>
+  <si>
+    <t>AllowTask for PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Kernel Debugger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Apple Internal </t>
+  </si>
+  <si>
+    <t>Allow Unrestricted DTrace</t>
+  </si>
+  <si>
+    <t>Allow Unrestricted NVRAM</t>
+  </si>
+  <si>
+    <t>Allow Device Configuration</t>
+  </si>
+  <si>
+    <t>Allow Any Recovery OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Unapproved Kexts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Executable Policy Override </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Unauthenticated Root </t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>SUM (HEX | DEC)</t>
+  </si>
+  <si>
+    <t>0x26F</t>
+  </si>
+  <si>
+    <t>0x7EF</t>
+  </si>
+  <si>
+    <t>0x7FF</t>
+  </si>
+  <si>
+    <t>0x3FF</t>
+  </si>
+  <si>
+    <t>0x067</t>
+  </si>
+  <si>
+    <t>HEX (OpenCore)</t>
+  </si>
+  <si>
+    <t>CSR-ACTIVE-CONFIG (REVERSED ORDER)</t>
+  </si>
+  <si>
+    <t>6F 02 00 00</t>
+  </si>
+  <si>
+    <t>EF 07 00 00</t>
+  </si>
+  <si>
+    <t>FF 07 00 00</t>
+  </si>
+  <si>
+    <t>FF 03 00 00</t>
+  </si>
+  <si>
+    <t>67 00 00 00</t>
+  </si>
+  <si>
+    <t>PRESETS</t>
+  </si>
+  <si>
+    <t>SIP fully enabled</t>
+  </si>
+  <si>
+    <t>00 00 00 00</t>
+  </si>
+  <si>
+    <t>Disable Kext signing and FS Protection</t>
+  </si>
+  <si>
+    <t>03 00 00 00</t>
+  </si>
+  <si>
+    <t>SIP fully disabled</t>
+  </si>
+  <si>
+    <t>FF 0F 00 00</t>
+  </si>
+  <si>
+    <t>FF 01 00 00</t>
+  </si>
+  <si>
+    <t>FF 00 00 00</t>
+  </si>
+  <si>
+    <t>RECOMMENDED</t>
+  </si>
+  <si>
+    <t>PickerAttributes Calculator (OC 0.7.4+)</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>PARAMETER</t>
+  </si>
+  <si>
     <t>DEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Untrusted Kexts </t>
-  </si>
-  <si>
-    <t>Allow Unrestricted FileSystem</t>
-  </si>
-  <si>
-    <t>AllowTask for PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Kernel Debugger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Apple Internal </t>
-  </si>
-  <si>
-    <t>Allow Unrestricted DTrace</t>
-  </si>
-  <si>
-    <t>Allow Unrestricted NVRAM</t>
-  </si>
-  <si>
-    <t>Allow Device Configuration</t>
-  </si>
-  <si>
-    <t>Allow Any Recovery OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Unapproved Kexts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Executable Policy Override </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow Unauthenticated Root </t>
-  </si>
-  <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>SUM (HEX | DEC)</t>
-  </si>
-  <si>
-    <t>0x26F</t>
-  </si>
-  <si>
-    <t>0xFEF</t>
-  </si>
-  <si>
-    <t>0x7FF</t>
-  </si>
-  <si>
-    <t>0x3FF</t>
-  </si>
-  <si>
-    <t>0x067</t>
-  </si>
-  <si>
-    <t>HEX (OpenCore)</t>
-  </si>
-  <si>
-    <t>CSR-ACTIVE-CONFIG (REVERSED ORDER)</t>
-  </si>
-  <si>
-    <t>6F 02 00 00</t>
-  </si>
-  <si>
-    <t>EF 0F 00 00</t>
-  </si>
-  <si>
-    <t>FF 07 00 00</t>
-  </si>
-  <si>
-    <t>FF 03 00 00</t>
-  </si>
-  <si>
-    <t>67 00 00 00</t>
-  </si>
-  <si>
-    <t>PRESETS</t>
-  </si>
-  <si>
-    <t>SIP fully enabled</t>
-  </si>
-  <si>
-    <t>00 00 00 00</t>
-  </si>
-  <si>
-    <t>Disable Kext signing and FS Protection</t>
-  </si>
-  <si>
-    <t>03 00 00 00</t>
-  </si>
-  <si>
-    <t>SIP fully disabled</t>
-  </si>
-  <si>
-    <t>FF 0F 00 00</t>
-  </si>
-  <si>
-    <t>FF 01 00 00</t>
-  </si>
-  <si>
-    <t>FF 00 00 00</t>
-  </si>
-  <si>
-    <t>RECOMMENDED</t>
-  </si>
-  <si>
-    <t>PickerAttributes Calculator (OC 0.7.4+)</t>
-  </si>
-  <si>
-    <t>STORAGE</t>
-  </si>
-  <si>
-    <t>PARAMETER</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
@@ -439,7 +466,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="########"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -453,7 +480,7 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -467,6 +494,12 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -476,12 +509,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -507,14 +534,8 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
       <color indexed="13"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -571,26 +592,10 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
-    </font>
-    <font>
       <u val="single"/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="18"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2175,7 +2180,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2287,29 +2292,26 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2320,61 +2322,61 @@
     <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="8" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2410,22 +2412,22 @@
     <xf numFmtId="49" fontId="9" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2455,22 +2457,22 @@
     <xf numFmtId="49" fontId="9" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2479,22 +2481,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2506,7 +2508,7 @@
     <xf numFmtId="49" fontId="11" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2518,7 +2520,7 @@
     <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2527,7 +2529,7 @@
     <xf numFmtId="0" fontId="0" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2536,7 +2538,7 @@
     <xf numFmtId="49" fontId="9" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2545,13 +2547,13 @@
     <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2563,10 +2565,10 @@
     <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2584,10 +2586,10 @@
     <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2599,22 +2601,22 @@
     <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="15" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="15" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2623,16 +2625,16 @@
     <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="92" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="92" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2641,10 +2643,10 @@
     <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2656,10 +2658,10 @@
     <xf numFmtId="0" fontId="0" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2668,7 +2670,7 @@
     <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2680,7 +2682,7 @@
     <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2698,7 +2700,7 @@
     <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2707,7 +2709,7 @@
     <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2731,10 +2733,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2743,7 +2745,7 @@
     <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2767,10 +2769,10 @@
     <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2813,13 +2815,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>188432</xdr:rowOff>
+      <xdr:rowOff>126548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>23772</xdr:colOff>
+      <xdr:colOff>1011255</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>151403</xdr:rowOff>
+      <xdr:rowOff>35486</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2828,8 +2830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6161242"/>
-          <a:ext cx="10310773" cy="2914452"/>
+          <a:off x="-19051" y="6124758"/>
+          <a:ext cx="11323657" cy="2860419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2872,10 +2874,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -2884,10 +2886,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>USAGE</a:t>
           </a:r>
@@ -2897,10 +2899,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
@@ -2909,10 +2911,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2936,10 +2938,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
@@ -2947,10 +2949,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2974,10 +2976,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -2986,10 +2988,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the Hex values for the flags you want to set from »HEX Storage« to the »HEX« fields of the macOS version you want to calculate a »csr-active-config« for.</a:t>
           </a:r>
@@ -2998,10 +3000,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3025,10 +3027,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3037,10 +3039,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>The result of the calculation is displayed in »CONVERTED to HEX (OpenCore)«</a:t>
           </a:r>
@@ -3049,10 +3051,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3076,10 +3078,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3088,10 +3090,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Take this Hex value, split it into pairs of 2 and reverse the order of the the pairs from front to back and type into the green box manually. </a:t>
           </a:r>
@@ -3100,10 +3102,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3127,10 +3129,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3139,10 +3141,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the hex-swapped value to to field csr-active-config of your config.plist to disable SIP.</a:t>
           </a:r>
@@ -3151,10 +3153,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3178,10 +3180,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:br>
@@ -3190,10 +3192,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
           </a:br>
           <a:r>
@@ -3202,10 +3204,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Example</a:t>
           </a:r>
@@ -3215,10 +3217,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>: HEX Result is: 00 00 08 67, in reversed order: = </a:t>
           </a:r>
@@ -3228,10 +3230,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>67 08 00 00 </a:t>
           </a:r>
@@ -3240,10 +3242,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3267,10 +3269,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
@@ -3278,10 +3280,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3305,10 +3307,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3317,10 +3319,10 @@
                 <a:srgbClr val="FF2600"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>NOTE 1</a:t>
           </a:r>
@@ -3330,22 +3332,22 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>: In macOS BigSur/Monterey, Bit 5 needs to be unset in order to get notified about System Updates!</a:t>
+            <a:t>: In macOS BigSur/Monterey, Bit 4 an 11 need to be unset in order to get notified about System Updates!</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3369,10 +3371,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3381,10 +3383,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>NOTE 2</a:t>
           </a:r>
@@ -3394,10 +3396,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
           </a:r>
@@ -3406,10 +3408,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3433,10 +3435,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3445,10 +3447,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>NOTE 3: </a:t>
           </a:r>
@@ -3458,10 +3460,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
           </a:r>
@@ -3470,10 +3472,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -3497,10 +3499,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -3509,10 +3511,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>NOTE 4</a:t>
           </a:r>
@@ -3522,10 +3524,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>: Color Coding: cyan = OpenCore; green = Clover</a:t>
           </a:r>
@@ -3538,14 +3540,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>51569</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>36472</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>53851</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86872</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3554,8 +3556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="8975859"/>
-          <a:ext cx="7504073" cy="4218683"/>
+          <a:off x="-19050" y="8823459"/>
+          <a:ext cx="7504073" cy="4218684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4593,13 +4595,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>53194</xdr:rowOff>
+      <xdr:rowOff>27794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>411479</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16239</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>201659</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4915,13 +4917,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>83994</xdr:rowOff>
+      <xdr:rowOff>61337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>27963</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174060</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4930,8 +4932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6185074"/>
-          <a:ext cx="5143501" cy="1208890"/>
+          <a:off x="-19050" y="6187817"/>
+          <a:ext cx="5143501" cy="1166824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4954,7 +4956,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4974,10 +4976,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -4986,10 +4988,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>USAGE</a:t>
           </a:r>
@@ -4999,10 +5001,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
@@ -5012,10 +5014,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
           </a:br>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5023,14 +5025,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5050,10 +5052,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5062,10 +5064,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the corresponding values of features you want to enable from »Storage« to »HEX« to add them to the ScanPolicy.</a:t>
           </a:r>
@@ -5074,14 +5076,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5101,10 +5103,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5113,10 +5115,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the resulting ScanPolicy value in the cyan box to your Config.plist, save and reboot. (Default value: 17760515; To enable all Options: 0) </a:t>
           </a:r>
@@ -5135,13 +5137,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>45673</xdr:rowOff>
+      <xdr:rowOff>25027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>46235</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>110821</xdr:rowOff>
+      <xdr:rowOff>17283</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5150,8 +5152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="2176098"/>
-          <a:ext cx="5062736" cy="1751709"/>
+          <a:off x="-19050" y="2180852"/>
+          <a:ext cx="5062736" cy="1678817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5174,7 +5176,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5194,10 +5196,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5206,10 +5208,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>USAGE</a:t>
           </a:r>
@@ -5219,10 +5221,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
@@ -5232,10 +5234,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
           </a:br>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5243,14 +5245,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5270,10 +5272,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5282,10 +5284,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the corresponding values for functions you want to enable from the »Storage« column to the »HEX« column to add them to the Data Exposure Bitmask.</a:t>
           </a:r>
@@ -5294,14 +5296,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5321,10 +5323,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5333,10 +5335,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the resulting ExposeSensitiveData value in the cyan box to your config.plist, save and reboot. (Default: 6)</a:t>
           </a:r>
@@ -5345,14 +5347,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5372,10 +5374,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5383,10 +5385,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -5410,10 +5412,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5422,10 +5424,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>*For further information please refer to the Configuration.pdf included in the OpenCore package.</a:t>
           </a:r>
@@ -5444,13 +5446,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>56862</xdr:rowOff>
+      <xdr:rowOff>35252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4752855</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>172175</xdr:rowOff>
+      <xdr:rowOff>92452</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5459,8 +5461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3033107"/>
-          <a:ext cx="7470656" cy="1591054"/>
+          <a:off x="-19050" y="3036897"/>
+          <a:ext cx="7470656" cy="1532941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5483,7 +5485,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5503,10 +5505,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5515,10 +5517,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>USAGE</a:t>
           </a:r>
@@ -5528,10 +5530,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
@@ -5541,10 +5543,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
           </a:br>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5552,14 +5554,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5579,10 +5581,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5591,10 +5593,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Add the bit value(s) of the flag(s) you want to use to the »Sum« column</a:t>
           </a:r>
@@ -5603,14 +5605,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5630,10 +5632,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5642,10 +5644,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Copy the resulting value for darkwake in the cyan box</a:t>
           </a:r>
@@ -5654,14 +5656,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5681,10 +5683,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5693,10 +5695,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Add it to boot-args as </a:t>
           </a:r>
@@ -5706,10 +5708,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>darkwake=x (x= 514 in this example)</a:t>
           </a:r>
@@ -5719,10 +5721,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t> of your config.plist </a:t>
           </a:r>
@@ -5731,14 +5733,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5758,10 +5760,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5770,10 +5772,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Save, reboot test it.</a:t>
           </a:r>
@@ -5782,14 +5784,14 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5809,10 +5811,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5820,10 +5822,10 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -5842,19 +5844,19 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5864,10 +5866,23 @@
               <a:cs typeface="Helvetica Neue Medium"/>
               <a:sym typeface="Helvetica Neue Medium"/>
             </a:rPr>
-            <a:t>Source: </a:t>
+            <a:t>Source</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="900" u="sng">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="sng">
               <a:solidFill>
                 <a:srgbClr val="0563C1"/>
               </a:solidFill>
@@ -5876,10 +5891,10 @@
                   <a:srgbClr val="0563C1"/>
                 </a:solidFill>
               </a:uFill>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
               <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
             </a:rPr>
             <a:t>Fixing HID Wake Issues</a:t>
@@ -6961,19 +6976,19 @@
     <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1016" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.9219" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8438" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1797" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.2969" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.9219" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6719" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.4453" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7734" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6719" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.8516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7344" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
     <col min="17" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -7145,7 +7160,7 @@
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="38">
         <v>1</v>
@@ -7199,7 +7214,7 @@
     </row>
     <row r="8" ht="17.65" customHeight="1">
       <c r="A8" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="38">
         <v>2</v>
@@ -7253,7 +7268,7 @@
     </row>
     <row r="9" ht="17.65" customHeight="1">
       <c r="A9" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="38">
         <v>4</v>
@@ -7307,7 +7322,7 @@
     </row>
     <row r="10" ht="17.65" customHeight="1">
       <c r="A10" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="38">
         <v>8</v>
@@ -7356,13 +7371,13 @@
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="44">
-        <v>5</v>
-      </c>
-      <c r="B11" s="45">
+      <c r="A11" s="37">
+        <v>4</v>
+      </c>
+      <c r="B11" s="44">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="46">
+      <c r="C11" t="s" s="45">
         <v>24</v>
       </c>
       <c r="D11" s="40"/>
@@ -7376,21 +7391,21 @@
         <f>HEX2DEC(G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <v>10</v>
       </c>
       <c r="J11" s="41">
         <f>HEX2DEC(I11)</f>
         <v>16</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="40">
         <v>10</v>
       </c>
       <c r="L11" s="41">
         <f>HEX2DEC(K11)</f>
         <v>16</v>
       </c>
-      <c r="M11" s="47"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="41">
         <f>HEX2DEC(M11)</f>
         <v>0</v>
@@ -7403,7 +7418,7 @@
     </row>
     <row r="12" ht="17.65" customHeight="1">
       <c r="A12" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="38">
         <v>20</v>
@@ -7457,7 +7472,7 @@
     </row>
     <row r="13" ht="17.65" customHeight="1">
       <c r="A13" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="38">
         <v>40</v>
@@ -7511,7 +7526,7 @@
     </row>
     <row r="14" ht="17.65" customHeight="1">
       <c r="A14" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="38">
         <v>80</v>
@@ -7551,15 +7566,15 @@
         <f>HEX2DEC(M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49">
+      <c r="O14" s="47"/>
+      <c r="P14" s="48">
         <f>HEX2DEC(O14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
       <c r="A15" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="38">
         <v>100</v>
@@ -7594,17 +7609,17 @@
         <f>HEX2DEC(K15)</f>
         <v>256</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49">
+      <c r="M15" s="47"/>
+      <c r="N15" s="48">
         <f>HEX2DEC(M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" ht="17.65" customHeight="1">
       <c r="A16" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="38">
         <v>200</v>
@@ -7634,21 +7649,21 @@
         <f>HEX2DEC(I16)</f>
         <v>512</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <v>200</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="48">
         <f>HEX2DEC(K16)</f>
         <v>512</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" ht="17.65" customHeight="1">
       <c r="A17" s="37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="38">
         <v>400</v>
@@ -7669,337 +7684,335 @@
         <f>HEX2DEC(G17)</f>
         <v>1024</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="47">
         <v>400</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="48">
         <f>HEX2DEC(I17)</f>
         <v>1024</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" ht="17.65" customHeight="1">
-      <c r="A18" s="62">
-        <v>12</v>
-      </c>
-      <c r="B18" s="63">
+      <c r="A18" s="61">
+        <v>11</v>
+      </c>
+      <c r="B18" s="62">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="64">
+      <c r="C18" t="s" s="63">
         <v>31</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49">
+      <c r="D18" s="47"/>
+      <c r="E18" s="48">
         <f>HEX2DEC(D18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="48">
-        <v>800</v>
-      </c>
-      <c r="H18" s="49">
+      <c r="G18" s="47"/>
+      <c r="H18" s="48">
         <f>HEX2DEC(G18)</f>
-        <v>2048</v>
-      </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="75">
+      <c r="A20" t="s" s="74">
         <v>32</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" t="s" s="77">
+      <c r="B20" s="75"/>
+      <c r="C20" t="s" s="76">
         <v>33</v>
       </c>
-      <c r="D20" t="s" s="78">
+      <c r="D20" t="s" s="77">
         <f>"0x"&amp;DEC2HEX(D21,3)</f>
         <v>34</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="78">
         <f>SUM(E7:E18)</f>
         <v>623</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" t="s" s="81">
+      <c r="F20" s="79"/>
+      <c r="G20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(G21,3)</f>
         <v>35</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="78">
         <f>SUM(H7:H18)</f>
-        <v>4079</v>
-      </c>
-      <c r="I20" t="s" s="81">
+        <v>2031</v>
+      </c>
+      <c r="I20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(I21,3)</f>
         <v>36</v>
       </c>
-      <c r="J20" s="79">
+      <c r="J20" s="78">
         <f>SUM(J7:J18)</f>
         <v>2047</v>
       </c>
-      <c r="K20" t="s" s="81">
+      <c r="K20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(K21,3)</f>
         <v>37</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="78">
         <f>SUM(L7:L18)</f>
         <v>1023</v>
       </c>
-      <c r="M20" t="s" s="81">
+      <c r="M20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(M21,3)</f>
         <v>38</v>
       </c>
-      <c r="N20" s="79">
+      <c r="N20" s="78">
         <f>SUM(N7:N15)</f>
         <v>103</v>
       </c>
-      <c r="O20" t="s" s="82">
+      <c r="O20" t="s" s="81">
         <f>"0x"&amp;DEC2HEX(O21,3)</f>
         <v>38</v>
       </c>
-      <c r="P20" s="83">
+      <c r="P20" s="82">
         <f>SUM(P7:P14)</f>
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" t="s" s="85">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" t="s" s="84">
         <v>39</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="85">
         <f>DEC2HEX(E20,8)</f>
         <v>623</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89">
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88">
         <f>DEC2HEX(H20,8)</f>
-        <v>4079</v>
-      </c>
-      <c r="H21" s="90"/>
-      <c r="I21" s="89">
+        <v>2031</v>
+      </c>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88">
         <f>DEC2HEX(J20,8)</f>
         <v>2047</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="89">
+      <c r="J21" s="89"/>
+      <c r="K21" s="88">
         <f>DEC2HEX(L20,8)</f>
         <v>1023</v>
       </c>
-      <c r="L21" s="90"/>
-      <c r="M21" s="89">
+      <c r="L21" s="89"/>
+      <c r="M21" s="88">
         <f>DEC2HEX(N20,8)</f>
         <v>103</v>
       </c>
-      <c r="N21" s="90"/>
-      <c r="O21" s="89">
+      <c r="N21" s="89"/>
+      <c r="O21" s="88">
         <f>DEC2HEX(P20,8)</f>
         <v>103</v>
       </c>
-      <c r="P21" s="87"/>
+      <c r="P21" s="86"/>
     </row>
     <row r="22" ht="17.65" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" t="s" s="92">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" t="s" s="91">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="93">
+      <c r="D22" t="s" s="92">
         <v>41</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" t="s" s="96">
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" t="s" s="95">
         <v>42</v>
       </c>
-      <c r="H22" s="97"/>
-      <c r="I22" t="s" s="96">
+      <c r="H22" s="96"/>
+      <c r="I22" t="s" s="95">
         <v>43</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" t="s" s="96">
+      <c r="J22" s="96"/>
+      <c r="K22" t="s" s="95">
         <v>44</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" t="s" s="98">
+      <c r="L22" s="96"/>
+      <c r="M22" t="s" s="97">
         <v>45</v>
       </c>
-      <c r="N22" s="99"/>
-      <c r="O22" t="s" s="98">
+      <c r="N22" s="98"/>
+      <c r="O22" t="s" s="97">
         <v>45</v>
       </c>
-      <c r="P22" s="94"/>
+      <c r="P22" s="93"/>
     </row>
     <row r="23" ht="17.65" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="104"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
     </row>
     <row r="24" ht="17.65" customHeight="1">
-      <c r="A24" t="s" s="75">
+      <c r="A24" t="s" s="74">
         <v>46</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" t="s" s="105">
+      <c r="B24" s="75"/>
+      <c r="C24" t="s" s="104">
         <v>47</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" t="s" s="109">
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
+      <c r="G24" t="s" s="108">
         <v>48</v>
       </c>
-      <c r="H24" s="110"/>
-      <c r="I24" t="s" s="109">
+      <c r="H24" s="109"/>
+      <c r="I24" t="s" s="108">
         <v>48</v>
       </c>
-      <c r="J24" s="110"/>
-      <c r="K24" t="s" s="109">
+      <c r="J24" s="109"/>
+      <c r="K24" t="s" s="108">
         <v>48</v>
       </c>
-      <c r="L24" s="110"/>
-      <c r="M24" t="s" s="109">
+      <c r="L24" s="109"/>
+      <c r="M24" t="s" s="108">
         <v>48</v>
       </c>
-      <c r="N24" s="110"/>
-      <c r="O24" t="s" s="111">
+      <c r="N24" s="109"/>
+      <c r="O24" t="s" s="110">
         <v>48</v>
       </c>
-      <c r="P24" s="112"/>
+      <c r="P24" s="111"/>
     </row>
     <row r="25" ht="17.65" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" t="s" s="113">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" t="s" s="112">
         <v>49</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" t="s" s="109">
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
+      <c r="G25" t="s" s="108">
         <v>50</v>
       </c>
-      <c r="H25" s="117"/>
-      <c r="I25" t="s" s="109">
+      <c r="H25" s="116"/>
+      <c r="I25" t="s" s="108">
         <v>50</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" t="s" s="109">
+      <c r="J25" s="116"/>
+      <c r="K25" t="s" s="108">
         <v>50</v>
       </c>
-      <c r="L25" s="117"/>
-      <c r="M25" t="s" s="109">
+      <c r="L25" s="116"/>
+      <c r="M25" t="s" s="108">
         <v>50</v>
       </c>
-      <c r="N25" s="117"/>
-      <c r="O25" t="s" s="111">
+      <c r="N25" s="116"/>
+      <c r="O25" t="s" s="110">
         <v>50</v>
       </c>
-      <c r="P25" s="112"/>
+      <c r="P25" s="111"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" t="s" s="118">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" t="s" s="117">
         <v>51</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" t="s" s="109">
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
+      <c r="G26" t="s" s="108">
         <v>52</v>
       </c>
-      <c r="H26" s="117"/>
-      <c r="I26" t="s" s="109">
+      <c r="H26" s="116"/>
+      <c r="I26" t="s" s="108">
         <v>43</v>
       </c>
-      <c r="J26" s="117"/>
-      <c r="K26" t="s" s="109">
+      <c r="J26" s="116"/>
+      <c r="K26" t="s" s="108">
         <v>44</v>
       </c>
-      <c r="L26" s="117"/>
-      <c r="M26" t="s" s="109">
+      <c r="L26" s="116"/>
+      <c r="M26" t="s" s="108">
         <v>53</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" t="s" s="111">
+      <c r="N26" s="116"/>
+      <c r="O26" t="s" s="110">
         <v>54</v>
       </c>
-      <c r="P26" s="112"/>
+      <c r="P26" s="111"/>
     </row>
     <row r="27" ht="17.65" customHeight="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" t="s" s="119">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" t="s" s="118">
         <v>55</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" t="s" s="123">
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" t="s" s="122">
         <v>42</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" t="s" s="123">
+      <c r="H27" s="123"/>
+      <c r="I27" t="s" s="122">
         <v>43</v>
       </c>
-      <c r="J27" s="124"/>
-      <c r="K27" t="s" s="123">
+      <c r="J27" s="123"/>
+      <c r="K27" t="s" s="122">
         <v>44</v>
       </c>
-      <c r="L27" s="124"/>
-      <c r="M27" t="s" s="123">
+      <c r="L27" s="123"/>
+      <c r="M27" t="s" s="122">
         <v>45</v>
       </c>
-      <c r="N27" s="124"/>
-      <c r="O27" t="s" s="125">
+      <c r="N27" s="123"/>
+      <c r="O27" t="s" s="124">
         <v>45</v>
       </c>
-      <c r="P27" s="112"/>
+      <c r="P27" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -8040,15 +8053,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.4844" style="126" customWidth="1"/>
-    <col min="2" max="2" width="6.79688" style="126" customWidth="1"/>
-    <col min="3" max="3" width="33" style="126" customWidth="1"/>
-    <col min="4" max="4" width="7.57031" style="126" customWidth="1"/>
-    <col min="5" max="5" width="88.8906" style="126" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="126" customWidth="1"/>
+    <col min="1" max="1" width="10.4844" style="125" customWidth="1"/>
+    <col min="2" max="2" width="6.79688" style="125" customWidth="1"/>
+    <col min="3" max="3" width="33" style="125" customWidth="1"/>
+    <col min="4" max="4" width="7.57031" style="125" customWidth="1"/>
+    <col min="5" max="5" width="88.8906" style="125" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>56</v>
       </c>
@@ -8058,212 +8071,212 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="130"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="131">
+      <c r="A3" t="s" s="130">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="132">
+      <c r="B3" t="s" s="131">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="133">
+      <c r="C3" t="s" s="132">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="133">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="133">
+      <c r="D3" t="s" s="132">
         <v>59</v>
       </c>
+      <c r="E3" t="s" s="132">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="137"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="136"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="138">
+      <c r="A5" s="137">
         <v>1</v>
       </c>
-      <c r="B5" s="138">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="139">
-        <v>60</v>
-      </c>
-      <c r="D5" s="140">
+      <c r="C5" t="s" s="138">
+        <v>61</v>
+      </c>
+      <c r="D5" s="139">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="141">
-        <v>61</v>
+      <c r="E5" t="s" s="140">
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="137">
         <v>2</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" t="s" s="139">
-        <v>62</v>
-      </c>
-      <c r="D6" s="140">
+      <c r="B6" s="137"/>
+      <c r="C6" t="s" s="138">
+        <v>63</v>
+      </c>
+      <c r="D6" s="139">
         <f>HEX2DEC(B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="141">
-        <v>63</v>
+      <c r="E6" t="s" s="140">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="138">
+      <c r="A7" s="137">
         <v>4</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" t="s" s="139">
-        <v>64</v>
-      </c>
-      <c r="D7" s="140">
+      <c r="B7" s="137"/>
+      <c r="C7" t="s" s="138">
+        <v>65</v>
+      </c>
+      <c r="D7" s="139">
         <f>HEX2DEC(B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="141">
-        <v>65</v>
+      <c r="E7" t="s" s="140">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="138">
+      <c r="A8" s="137">
         <v>8</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" t="s" s="139">
-        <v>66</v>
-      </c>
-      <c r="D8" s="140">
+      <c r="B8" s="137"/>
+      <c r="C8" t="s" s="138">
+        <v>67</v>
+      </c>
+      <c r="D8" s="139">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="141">
-        <v>67</v>
+      <c r="E8" t="s" s="140">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="138">
+      <c r="A9" s="137">
         <v>10</v>
       </c>
-      <c r="B9" s="138">
+      <c r="B9" s="137">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="139">
-        <v>68</v>
-      </c>
-      <c r="D9" s="140">
+      <c r="C9" t="s" s="138">
+        <v>69</v>
+      </c>
+      <c r="D9" s="139">
         <f>HEX2DEC(B9)</f>
         <v>16</v>
       </c>
-      <c r="E9" t="s" s="141">
-        <v>69</v>
+      <c r="E9" t="s" s="140">
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="138">
+      <c r="A10" s="137">
         <v>20</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" t="s" s="139">
-        <v>70</v>
-      </c>
-      <c r="D10" s="140">
+      <c r="B10" s="137"/>
+      <c r="C10" t="s" s="138">
+        <v>71</v>
+      </c>
+      <c r="D10" s="139">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="141">
-        <v>71</v>
+      <c r="E10" t="s" s="140">
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="138">
+      <c r="A11" s="137">
         <v>40</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" t="s" s="139">
-        <v>72</v>
-      </c>
-      <c r="D11" s="140">
+      <c r="B11" s="137"/>
+      <c r="C11" t="s" s="138">
+        <v>73</v>
+      </c>
+      <c r="D11" s="139">
         <f>HEX2DEC(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="141">
-        <v>73</v>
+      <c r="E11" t="s" s="140">
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="138">
+      <c r="A12" s="137">
         <v>80</v>
       </c>
-      <c r="B12" s="138">
+      <c r="B12" s="137">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="139">
-        <v>74</v>
-      </c>
-      <c r="D12" s="140">
+      <c r="C12" t="s" s="138">
+        <v>75</v>
+      </c>
+      <c r="D12" s="139">
         <f>HEX2DEC(B12)</f>
         <v>128</v>
       </c>
-      <c r="E12" t="s" s="142">
-        <v>75</v>
+      <c r="E12" t="s" s="141">
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" t="s" s="143">
-        <v>76</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145">
+      <c r="A13" t="s" s="142">
+        <v>77</v>
+      </c>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144">
         <f>SUM(D5:D12)</f>
         <v>145</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="145"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="147"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" t="s" s="152">
+      <c r="A15" t="s" s="151">
         <v>46</v>
       </c>
-      <c r="B15" t="s" s="153">
-        <v>77</v>
-      </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155">
+      <c r="B15" t="s" s="152">
+        <v>78</v>
+      </c>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154">
         <v>17</v>
       </c>
-      <c r="E15" s="156"/>
+      <c r="E15" s="155"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" t="s" s="158">
-        <v>78</v>
-      </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160">
+      <c r="A16" s="156"/>
+      <c r="B16" t="s" s="157">
+        <v>79</v>
+      </c>
+      <c r="C16" s="158"/>
+      <c r="D16" s="159">
         <v>145</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8290,350 +8303,350 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="162" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="162" customWidth="1"/>
-    <col min="4" max="4" width="10.6484" style="162" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="162" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="161" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="161" customWidth="1"/>
+    <col min="4" max="4" width="10.6484" style="161" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="161" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="165"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="166">
+      <c r="A3" t="s" s="165">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="166">
+      <c r="B3" t="s" s="165">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="166">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s" s="166">
-        <v>19</v>
+      <c r="C3" t="s" s="165">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s" s="165">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="168"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="170">
+      <c r="A5" s="169">
         <v>1</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="169">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="171">
-        <v>81</v>
-      </c>
-      <c r="D5" s="172">
+      <c r="C5" t="s" s="170">
+        <v>82</v>
+      </c>
+      <c r="D5" s="171">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="170">
+      <c r="A6" s="169">
         <v>2</v>
       </c>
-      <c r="B6" s="170">
+      <c r="B6" s="169">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="171">
-        <v>82</v>
-      </c>
-      <c r="D6" s="172">
+      <c r="C6" t="s" s="170">
+        <v>83</v>
+      </c>
+      <c r="D6" s="171">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="169"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="170">
+      <c r="A8" s="169">
         <v>100</v>
       </c>
-      <c r="B8" s="170">
+      <c r="B8" s="169">
         <v>100</v>
       </c>
-      <c r="C8" t="s" s="171">
-        <v>83</v>
-      </c>
-      <c r="D8" s="172">
+      <c r="C8" t="s" s="170">
+        <v>84</v>
+      </c>
+      <c r="D8" s="171">
         <f>HEX2DEC(B8)</f>
         <v>256</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="170">
+      <c r="A9" s="169">
         <v>200</v>
       </c>
-      <c r="B9" s="170">
+      <c r="B9" s="169">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="171">
-        <v>84</v>
-      </c>
-      <c r="D9" s="172">
+      <c r="C9" t="s" s="170">
+        <v>85</v>
+      </c>
+      <c r="D9" s="171">
         <f>HEX2DEC(B9)</f>
         <v>512</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="170">
+      <c r="A10" s="169">
         <v>400</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" t="s" s="171">
-        <v>85</v>
-      </c>
-      <c r="D10" s="172">
+      <c r="B10" s="169"/>
+      <c r="C10" t="s" s="170">
+        <v>86</v>
+      </c>
+      <c r="D10" s="171">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="170">
+      <c r="A11" s="169">
         <v>800</v>
       </c>
-      <c r="B11" s="170">
+      <c r="B11" s="169">
         <v>800</v>
       </c>
-      <c r="C11" t="s" s="171">
-        <v>86</v>
-      </c>
-      <c r="D11" s="172">
+      <c r="C11" t="s" s="170">
+        <v>87</v>
+      </c>
+      <c r="D11" s="171">
         <f>HEX2DEC(B11)</f>
         <v>2048</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="170">
+      <c r="A12" s="169">
         <v>1000</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" t="s" s="171">
-        <v>87</v>
-      </c>
-      <c r="D12" s="172">
+      <c r="B12" s="169"/>
+      <c r="C12" t="s" s="170">
+        <v>88</v>
+      </c>
+      <c r="D12" s="171">
         <f>HEX2DEC(B12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="170">
+      <c r="A13" s="169">
         <v>2000</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" t="s" s="171">
-        <v>88</v>
-      </c>
-      <c r="D13" s="172">
+      <c r="B13" s="169"/>
+      <c r="C13" t="s" s="170">
+        <v>89</v>
+      </c>
+      <c r="D13" s="171">
         <f>HEX2DEC(B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="170">
+      <c r="A14" s="169">
         <v>4000</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" t="s" s="171">
-        <v>89</v>
-      </c>
-      <c r="D14" s="172">
+      <c r="B14" s="169"/>
+      <c r="C14" t="s" s="170">
+        <v>90</v>
+      </c>
+      <c r="D14" s="171">
         <f>HEX2DEC(B14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="169"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="168"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="170">
+      <c r="A16" s="169">
         <v>10000</v>
       </c>
-      <c r="B16" s="170">
+      <c r="B16" s="169">
         <v>10000</v>
       </c>
-      <c r="C16" t="s" s="171">
-        <v>90</v>
-      </c>
-      <c r="D16" s="172">
+      <c r="C16" t="s" s="170">
+        <v>91</v>
+      </c>
+      <c r="D16" s="171">
         <f>HEX2DEC(B16)</f>
         <v>65536</v>
       </c>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="170">
+      <c r="A17" s="169">
         <v>20000</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" t="s" s="171">
-        <v>91</v>
-      </c>
-      <c r="D17" s="172">
+      <c r="B17" s="169"/>
+      <c r="C17" t="s" s="170">
+        <v>92</v>
+      </c>
+      <c r="D17" s="171">
         <f>HEX2DEC(B17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="170">
+      <c r="A18" s="169">
         <v>40000</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" t="s" s="171">
-        <v>92</v>
-      </c>
-      <c r="D18" s="172">
+      <c r="B18" s="169"/>
+      <c r="C18" t="s" s="170">
+        <v>93</v>
+      </c>
+      <c r="D18" s="171">
         <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="170">
+      <c r="A19" s="169">
         <v>80000</v>
       </c>
-      <c r="B19" s="170">
+      <c r="B19" s="169">
         <v>80000</v>
       </c>
-      <c r="C19" t="s" s="171">
-        <v>93</v>
-      </c>
-      <c r="D19" s="172">
+      <c r="C19" t="s" s="170">
+        <v>94</v>
+      </c>
+      <c r="D19" s="171">
         <f>HEX2DEC(B19)</f>
         <v>524288</v>
       </c>
     </row>
     <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="170">
+      <c r="A20" s="169">
         <v>100000</v>
       </c>
-      <c r="B20" s="170"/>
-      <c r="C20" t="s" s="171">
-        <v>94</v>
-      </c>
-      <c r="D20" s="172">
+      <c r="B20" s="169"/>
+      <c r="C20" t="s" s="170">
+        <v>95</v>
+      </c>
+      <c r="D20" s="171">
         <f>HEX2DEC(B20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="170">
+      <c r="A21" s="169">
         <v>200000</v>
       </c>
-      <c r="B21" s="170">
+      <c r="B21" s="169">
         <v>200000</v>
       </c>
-      <c r="C21" t="s" s="171">
-        <v>95</v>
-      </c>
-      <c r="D21" s="172">
+      <c r="C21" t="s" s="170">
+        <v>96</v>
+      </c>
+      <c r="D21" s="171">
         <f>HEX2DEC(B21)</f>
         <v>2097152</v>
       </c>
     </row>
     <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="170">
+      <c r="A22" s="169">
         <v>400000</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" t="s" s="171">
-        <v>96</v>
-      </c>
-      <c r="D22" s="172">
+      <c r="B22" s="169"/>
+      <c r="C22" t="s" s="170">
+        <v>97</v>
+      </c>
+      <c r="D22" s="171">
         <f>HEX2DEC(B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="170">
+      <c r="A23" s="169">
         <v>800000</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" t="s" s="171">
-        <v>97</v>
-      </c>
-      <c r="D23" s="172">
+      <c r="B23" s="169"/>
+      <c r="C23" t="s" s="170">
+        <v>98</v>
+      </c>
+      <c r="D23" s="171">
         <f>HEX2DEC(B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="170">
+      <c r="A24" s="169">
         <v>1000000</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" t="s" s="171">
-        <v>98</v>
-      </c>
-      <c r="D24" s="172">
+      <c r="B24" s="169"/>
+      <c r="C24" t="s" s="170">
+        <v>99</v>
+      </c>
+      <c r="D24" s="171">
         <f>HEX2DEC(B24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="169"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="168"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" t="s" s="143">
-        <v>99</v>
-      </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="174">
+      <c r="A26" t="s" s="142">
+        <v>100</v>
+      </c>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="173">
         <f>SUM(D5:D24)</f>
         <v>2689795</v>
       </c>
     </row>
     <row r="27" ht="16.65" customHeight="1">
-      <c r="A27" s="175"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="177"/>
+      <c r="A27" s="174"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="176"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="178">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s" s="179">
-        <v>77</v>
-      </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="180">
+      <c r="A28" t="s" s="177">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s" s="178">
+        <v>78</v>
+      </c>
+      <c r="C28" s="153"/>
+      <c r="D28" s="179">
         <v>17760515</v>
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="181"/>
-      <c r="B29" t="s" s="182">
-        <v>101</v>
+      <c r="A29" s="180"/>
+      <c r="B29" t="s" s="181">
+        <v>102</v>
       </c>
       <c r="C29" s="33"/>
-      <c r="D29" s="183">
+      <c r="D29" s="182">
         <v>0</v>
       </c>
     </row>
@@ -8662,118 +8675,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="184" customWidth="1"/>
-    <col min="2" max="2" width="7.04688" style="184" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="184" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="184" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="184" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="183" customWidth="1"/>
+    <col min="2" max="2" width="7.04688" style="183" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="183" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="183" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="183" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="128"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="127"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="132">
+      <c r="A3" t="s" s="131">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="132">
+      <c r="B3" t="s" s="131">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="133">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s" s="133">
-        <v>19</v>
+      <c r="C3" t="s" s="132">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s" s="132">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="138">
+      <c r="A5" s="137">
         <v>1</v>
       </c>
-      <c r="B5" s="138">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="139">
-        <v>104</v>
-      </c>
-      <c r="D5" s="140">
+      <c r="C5" t="s" s="138">
+        <v>105</v>
+      </c>
+      <c r="D5" s="139">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="138">
+      <c r="A6" s="137">
         <v>2</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="137">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="139">
-        <v>105</v>
-      </c>
-      <c r="D6" s="140">
+      <c r="C6" t="s" s="138">
+        <v>106</v>
+      </c>
+      <c r="D6" s="139">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="138">
+      <c r="A7" s="137">
         <v>4</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="137">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="139">
-        <v>106</v>
-      </c>
-      <c r="D7" s="140">
+      <c r="C7" t="s" s="138">
+        <v>107</v>
+      </c>
+      <c r="D7" s="139">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="138">
+      <c r="A8" s="137">
         <v>8</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" t="s" s="139">
-        <v>107</v>
-      </c>
-      <c r="D8" s="140">
+      <c r="B8" s="137"/>
+      <c r="C8" t="s" s="138">
+        <v>108</v>
+      </c>
+      <c r="D8" s="139">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="135"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="134"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" t="s" s="185">
-        <v>108</v>
+      <c r="A10" t="s" s="184">
+        <v>109</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="186">
+      <c r="D10" s="185">
         <f>SUM(D5:D8)</f>
         <v>7</v>
       </c>
@@ -8800,162 +8813,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="187" customWidth="1"/>
-    <col min="2" max="2" width="25.9219" style="187" customWidth="1"/>
-    <col min="3" max="3" width="69.5703" style="187" customWidth="1"/>
-    <col min="4" max="4" width="8.10156" style="187" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="187" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="186" customWidth="1"/>
+    <col min="2" max="2" width="25.9219" style="186" customWidth="1"/>
+    <col min="3" max="3" width="69.5703" style="186" customWidth="1"/>
+    <col min="4" max="4" width="8.10156" style="186" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="186" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="133">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s" s="133">
+      <c r="A3" t="s" s="132">
         <v>111</v>
       </c>
-      <c r="C3" t="s" s="133">
+      <c r="B3" t="s" s="132">
         <v>112</v>
       </c>
-      <c r="D3" t="s" s="133">
+      <c r="C3" t="s" s="132">
         <v>113</v>
       </c>
+      <c r="D3" t="s" s="132">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="191"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="190"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="193">
+      <c r="A5" s="192">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="194">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s" s="194">
+      <c r="B5" t="s" s="193">
         <v>115</v>
       </c>
-      <c r="D5" s="191"/>
+      <c r="C5" t="s" s="193">
+        <v>116</v>
+      </c>
+      <c r="D5" s="190"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="193">
+      <c r="A6" s="192">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="194">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s" s="194">
+      <c r="B6" t="s" s="193">
         <v>117</v>
       </c>
-      <c r="D6" s="191"/>
+      <c r="C6" t="s" s="193">
+        <v>118</v>
+      </c>
+      <c r="D6" s="190"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="193">
+      <c r="A7" s="192">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="194">
+      <c r="B7" t="s" s="193">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s" s="193">
+        <v>120</v>
+      </c>
+      <c r="D7" s="190"/>
+    </row>
+    <row r="8" ht="16.65" customHeight="1">
+      <c r="A8" s="192">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="193">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s" s="193">
+        <v>122</v>
+      </c>
+      <c r="D8" s="190"/>
+    </row>
+    <row r="9" ht="16.65" customHeight="1">
+      <c r="A9" s="194">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="193">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="193">
         <v>118</v>
       </c>
-      <c r="C7" t="s" s="194">
-        <v>119</v>
-      </c>
-      <c r="D7" s="195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="193">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s" s="194">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s" s="194">
-        <v>121</v>
-      </c>
-      <c r="D8" s="191"/>
-    </row>
-    <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="195">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s" s="194">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s" s="194">
-        <v>117</v>
-      </c>
-      <c r="D9" s="191"/>
+      <c r="D9" s="190"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="195">
+      <c r="A10" s="194">
         <v>256</v>
       </c>
-      <c r="B10" t="s" s="194">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s" s="194">
+      <c r="B10" t="s" s="193">
         <v>124</v>
       </c>
-      <c r="D10" s="191"/>
+      <c r="C10" t="s" s="193">
+        <v>125</v>
+      </c>
+      <c r="D10" s="190"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="195">
+      <c r="A11" s="194">
         <v>512</v>
       </c>
-      <c r="B11" t="s" s="194">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s" s="194">
+      <c r="B11" t="s" s="193">
         <v>126</v>
       </c>
-      <c r="D11" s="195">
-        <v>512</v>
-      </c>
+      <c r="C11" t="s" s="193">
+        <v>127</v>
+      </c>
+      <c r="D11" s="190"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="195">
+      <c r="A12" s="194">
         <v>1024</v>
       </c>
-      <c r="B12" t="s" s="194">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s" s="194">
+      <c r="B12" t="s" s="193">
         <v>128</v>
       </c>
-      <c r="D12" s="191"/>
+      <c r="C12" t="s" s="193">
+        <v>129</v>
+      </c>
+      <c r="D12" s="194">
+        <v>1024</v>
+      </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="191"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="190"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="197">
-        <v>129</v>
+      <c r="A14" t="s" s="196">
+        <v>130</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>SUM(D5:D12)</f>
-        <v>514</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/B_OC_Calculators/OpenCoreCalcs.xlsx
+++ b/B_OC_Calculators/OpenCoreCalcs.xlsx
@@ -50,7 +50,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>HEX</t>
@@ -67,7 +67,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>STORAGE</t>
@@ -101,7 +101,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t xml:space="preserve">DEC (Bit </t>
@@ -110,7 +110,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>2</t>
@@ -118,7 +118,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>)</t>
@@ -167,7 +167,7 @@
     <t>SUM (HEX | DEC)</t>
   </si>
   <si>
-    <t>0x26F</t>
+    <t>0x27F</t>
   </si>
   <si>
     <t>0x7EF</t>
@@ -188,7 +188,7 @@
     <t>CSR-ACTIVE-CONFIG (REVERSED ORDER)</t>
   </si>
   <si>
-    <t>6F 02 00 00</t>
+    <t>7F 02 00 00</t>
   </si>
   <si>
     <t>EF 07 00 00</t>
@@ -466,7 +466,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="########"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -480,23 +480,28 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -567,7 +572,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -613,7 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -636,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="103">
+  <borders count="124">
     <border>
       <left/>
       <right/>
@@ -645,46 +650,79 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -756,12 +794,8 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -835,7 +869,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,7 +884,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,19 +893,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -880,7 +914,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,10 +971,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,10 +986,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,28 +998,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,7 +1076,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1057,7 +1091,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
         <color indexed="8"/>
@@ -1098,9 +1132,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1110,11 +1142,9 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1128,9 +1158,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1140,11 +1168,9 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1156,10 +1182,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="9"/>
@@ -1170,27 +1207,10 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1200,11 +1220,9 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1216,10 +1234,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
@@ -1230,13 +1259,11 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="9"/>
       </top>
       <bottom style="dotted">
@@ -1245,11 +1272,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="9"/>
@@ -1260,41 +1285,37 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="hair">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="12"/>
+      <right style="hair">
+        <color indexed="8"/>
       </right>
       <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="dotted">
         <color indexed="9"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="9"/>
@@ -1305,21 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="dotted">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="9"/>
       </left>
@@ -1338,41 +1344,72 @@
       <left style="hair">
         <color indexed="9"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </top>
       <bottom style="dotted">
         <color indexed="8"/>
@@ -1380,41 +1417,9 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
@@ -1425,14 +1430,44 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
       </top>
       <bottom style="dotted">
         <color indexed="8"/>
@@ -1446,7 +1481,22 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1461,7 +1511,7 @@
       <right style="dotted">
         <color indexed="8"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color indexed="8"/>
       </top>
       <bottom style="hair">
@@ -1473,7 +1523,7 @@
       <left style="dotted">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="dotted">
         <color indexed="8"/>
       </right>
       <top style="dotted">
@@ -1491,7 +1541,264 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
@@ -1503,404 +1810,122 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="dotted">
-        <color indexed="8"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1930,7 +1955,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,7 +1970,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1953,225 +1978,284 @@
       <left style="hair">
         <color indexed="8"/>
       </left>
-      <right>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="dotted">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="10"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="10"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="10"/>
+      </right>
+      <top style="dotted">
+        <color indexed="10"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
         <color indexed="8"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="hair">
         <color indexed="8"/>
       </left>
-      <right>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="10"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
         <color indexed="8"/>
       </right>
       <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
-      <right style="hair">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2180,599 +2264,668 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="9" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="93" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="95" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="98" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="92" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="110" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="98" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="113" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="110" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="115" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="116" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="117" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="118" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="119" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="117" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="121" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="123" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2793,15 +2946,15 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="fffa7d00"/>
       <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff2600"/>
       <rgbColor rgb="ff80f16b"/>
       <rgbColor rgb="ffaaede4"/>
       <rgbColor rgb="ff848484"/>
       <rgbColor rgb="ffd2d2d2"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff006100"/>
     </indexedColors>
   </colors>
@@ -2814,14 +2967,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>126548</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1011255</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>35486</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33355</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59752</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2830,8 +2983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19051" y="6124758"/>
-          <a:ext cx="11323657" cy="2860419"/>
+          <a:off x="-19051" y="5938207"/>
+          <a:ext cx="11374457" cy="2860416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2849,7 +3002,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -2869,7 +3022,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2906,7 +3059,7 @@
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2956,7 +3109,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3007,7 +3160,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3058,7 +3211,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3109,7 +3262,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3264,7 +3417,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3302,9 +3455,9 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FF2600"/>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -3339,7 +3492,71 @@
             </a:rPr>
             <a:t>: In macOS BigSur/Monterey, Bit 4 an 11 need to be unset in order to get notified about System Updates!</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="FF2600"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>NOTE 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
+          </a:r>
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3366,7 +3583,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3388,7 +3605,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>NOTE 2</a:t>
+            <a:t>NOTE 3: </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
@@ -3401,9 +3618,9 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
+            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3452,70 +3669,6 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>NOTE 3: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
             <a:t>NOTE 4</a:t>
           </a:r>
           <a:r>
@@ -3540,14 +3693,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84589</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>36472</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86872</xdr:rowOff>
+      <xdr:colOff>74572</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22556</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3556,8 +3709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="8823459"/>
-          <a:ext cx="7504073" cy="4218684"/>
+          <a:off x="-19051" y="8548326"/>
+          <a:ext cx="7554874" cy="4218681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3575,12 +3728,12 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3631,7 +3784,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3669,7 +3822,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3707,7 +3860,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3758,7 +3911,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3809,7 +3962,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3860,7 +4013,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3911,7 +4064,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3962,7 +4115,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4013,7 +4166,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4064,7 +4217,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4115,7 +4268,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4166,7 +4319,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4217,7 +4370,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4268,7 +4421,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4319,7 +4472,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4370,7 +4523,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4421,7 +4574,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4472,7 +4625,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4510,7 +4663,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4525,7 +4678,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4565,11 +4718,11 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
               <a:solidFill>
-                <a:srgbClr val="0563C1"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="0563C1"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="+mn-lt"/>
@@ -4594,14 +4747,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27794</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>411479</xdr:colOff>
+      <xdr:colOff>449579</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>201659</xdr:rowOff>
+      <xdr:rowOff>94073</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4610,8 +4763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3440284"/>
-          <a:ext cx="4818380" cy="1649606"/>
+          <a:off x="-19051" y="3332700"/>
+          <a:ext cx="4856481" cy="1649604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4629,7 +4782,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4649,7 +4802,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4723,7 +4876,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4774,7 +4927,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4916,14 +5069,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>61337</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>174060</xdr:rowOff>
+      <xdr:rowOff>97959</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4932,8 +5085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6187817"/>
-          <a:ext cx="5143501" cy="1166824"/>
+          <a:off x="-19050" y="6111719"/>
+          <a:ext cx="5181600" cy="1166821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4951,7 +5104,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4971,7 +5124,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5032,7 +5185,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5083,7 +5236,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5136,14 +5289,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25027</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>46235</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17283</xdr:rowOff>
+      <xdr:colOff>84335</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118612</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5152,8 +5305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="2180852"/>
-          <a:ext cx="5062736" cy="1678817"/>
+          <a:off x="-19051" y="2071363"/>
+          <a:ext cx="5100837" cy="1678815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5171,7 +5324,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5191,7 +5344,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5252,7 +5405,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5303,7 +5456,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5354,7 +5507,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5445,14 +5598,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35252</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4752855</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92452</xdr:rowOff>
+      <xdr:colOff>4790955</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203295</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5461,8 +5614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3036897"/>
-          <a:ext cx="7470656" cy="1532941"/>
+          <a:off x="-19050" y="2936922"/>
+          <a:ext cx="7508755" cy="1532939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5480,7 +5633,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5500,7 +5653,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5561,7 +5714,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5612,7 +5765,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5663,7 +5816,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5740,7 +5893,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5791,7 +5944,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5849,10 +6002,10 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
+              <a:latin typeface="Helvetica Neue Medium"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Helvetica Neue Medium"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
@@ -5884,11 +6037,11 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="sng">
               <a:solidFill>
-                <a:srgbClr val="0563C1"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="0563C1"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="+mn-lt"/>
@@ -6100,17 +6253,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6138,10 +6291,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6389,12 +6542,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -6681,7 +6834,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6709,10 +6862,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6963,7 +7116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:P27"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6971,17 +7124,17 @@
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7344" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8438" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1797" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.2969" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3516" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.6719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.4453" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.6719" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.8516" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
@@ -6992,1027 +7145,1641 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" t="s" s="11">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" t="s" s="11">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" ht="17.65" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" t="s" s="19">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" t="s" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" t="s" s="19">
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" t="s" s="22">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" t="s" s="22">
+      <c r="H4" s="23"/>
+      <c r="I4" t="s" s="25">
         <v>5</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" t="s" s="22">
+      <c r="J4" s="26"/>
+      <c r="K4" t="s" s="25">
         <v>6</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" t="s" s="22">
+      <c r="L4" s="26"/>
+      <c r="M4" t="s" s="25">
         <v>7</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" t="s" s="22">
+      <c r="N4" s="26"/>
+      <c r="O4" t="s" s="25">
         <v>8</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" ht="17.65" customHeight="1">
-      <c r="A5" t="s" s="24">
+      <c r="A5" t="s" s="27">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="26">
+      <c r="B5" t="s" s="28">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="27">
+      <c r="C5" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="28">
+      <c r="D5" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="13"/>
-      <c r="G5" t="s" s="28">
+      <c r="E5" s="31"/>
+      <c r="F5" s="16"/>
+      <c r="G5" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" t="s" s="30">
+      <c r="H5" s="31"/>
+      <c r="I5" t="s" s="32">
         <v>13</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" t="s" s="30">
+      <c r="J5" s="33"/>
+      <c r="K5" t="s" s="32">
         <v>14</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" t="s" s="30">
+      <c r="L5" s="33"/>
+      <c r="M5" t="s" s="32">
         <v>15</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" t="s" s="30">
+      <c r="N5" s="33"/>
+      <c r="O5" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" ht="17.65" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" t="s" s="34">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" t="s" s="36">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="35">
+      <c r="D6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="36">
+      <c r="E6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s" s="35">
+      <c r="F6" s="16"/>
+      <c r="G6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="H6" t="s" s="36">
+      <c r="H6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="35">
+      <c r="I6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="J6" t="s" s="36">
+      <c r="J6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="K6" t="s" s="35">
+      <c r="K6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="L6" t="s" s="36">
+      <c r="L6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="M6" t="s" s="35">
+      <c r="M6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="N6" t="s" s="36">
+      <c r="N6" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="O6" t="s" s="35">
+      <c r="O6" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="36">
+      <c r="P6" t="s" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="37">
+      <c r="A7" s="39">
         <v>0</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="39">
+      <c r="C7" t="s" s="41">
         <v>20</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="43">
         <f>HEX2DEC(D7)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40">
+      <c r="F7" s="44"/>
+      <c r="G7" s="42">
         <v>1</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="43">
         <f>HEX2DEC(G7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="42">
         <v>1</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="43">
         <f>HEX2DEC(I7)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="42">
         <v>1</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="43">
         <f>HEX2DEC(K7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="42">
         <v>1</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="43">
         <f>HEX2DEC(M7)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="42">
         <v>1</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="43">
         <f>HEX2DEC(O7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="17.65" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="40">
         <v>2</v>
       </c>
-      <c r="C8" t="s" s="43">
+      <c r="C8" t="s" s="45">
         <v>21</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="42">
         <v>2</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="43">
         <f>HEX2DEC(D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40">
+      <c r="F8" s="44"/>
+      <c r="G8" s="42">
         <v>2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="43">
         <f>HEX2DEC(G8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="42">
         <v>2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="43">
         <f>HEX2DEC(I8)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="42">
         <v>2</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="43">
         <f>HEX2DEC(K8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="42">
         <v>2</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="43">
         <f>HEX2DEC(M8)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="42">
         <v>2</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="43">
         <f>HEX2DEC(O8)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="17.65" customHeight="1">
-      <c r="A9" s="37">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="40">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="C9" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="42">
         <v>4</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="43">
         <f>HEX2DEC(D9)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40">
+      <c r="F9" s="44"/>
+      <c r="G9" s="42">
         <v>4</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="43">
         <f>HEX2DEC(G9)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="42">
         <v>4</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="43">
         <f>HEX2DEC(I9)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="42">
         <v>4</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="43">
         <f>HEX2DEC(K9)</f>
         <v>4</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="42">
         <v>4</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="43">
         <f>HEX2DEC(M9)</f>
         <v>4</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="42">
         <v>4</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="43">
         <f>HEX2DEC(O9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="37">
+      <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="40">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="43">
+      <c r="C10" t="s" s="45">
         <v>23</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="42">
         <v>8</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="43">
         <f>HEX2DEC(D10)</f>
         <v>8</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="40">
+      <c r="F10" s="44"/>
+      <c r="G10" s="42">
         <v>8</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="43">
         <f>HEX2DEC(G10)</f>
         <v>8</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="42">
         <v>8</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="43">
         <f>HEX2DEC(I10)</f>
         <v>8</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="42">
         <v>8</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="43">
         <f>HEX2DEC(K10)</f>
         <v>8</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41">
+      <c r="M10" s="42"/>
+      <c r="N10" s="43">
         <f>HEX2DEC(M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41">
+      <c r="O10" s="42"/>
+      <c r="P10" s="43">
         <f>HEX2DEC(O10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="39">
         <v>4</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="46">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="45">
+      <c r="C11" t="s" s="47">
         <v>24</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41">
+      <c r="D11" s="42">
+        <v>10</v>
+      </c>
+      <c r="E11" s="43">
         <f>HEX2DEC(D11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41">
+        <v>16</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43">
         <f>HEX2DEC(G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="42">
         <v>10</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="43">
         <f>HEX2DEC(I11)</f>
         <v>16</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="42">
         <v>10</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="43">
         <f>HEX2DEC(K11)</f>
         <v>16</v>
       </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="41">
+      <c r="M11" s="48"/>
+      <c r="N11" s="43">
         <f>HEX2DEC(M11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41">
+      <c r="O11" s="42"/>
+      <c r="P11" s="43">
         <f>HEX2DEC(O11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="17.65" customHeight="1">
-      <c r="A12" s="37">
+      <c r="A12" s="39">
         <v>5</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="40">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="43">
+      <c r="C12" t="s" s="45">
         <v>25</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="42">
         <v>20</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="43">
         <f>HEX2DEC(D12)</f>
         <v>32</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40">
+      <c r="F12" s="44"/>
+      <c r="G12" s="42">
         <v>20</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="43">
         <f>HEX2DEC(G12)</f>
         <v>32</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="42">
         <v>20</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="43">
         <f>HEX2DEC(I12)</f>
         <v>32</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="42">
         <v>20</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="43">
         <f>HEX2DEC(K12)</f>
         <v>32</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="42">
         <v>20</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="43">
         <f>HEX2DEC(M12)</f>
         <v>32</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="42">
         <v>20</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="43">
         <f>HEX2DEC(O12)</f>
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="39">
         <v>6</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="40">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="43">
+      <c r="C13" t="s" s="45">
         <v>26</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="42">
         <v>40</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="43">
         <f>HEX2DEC(D13)</f>
         <v>64</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40">
+      <c r="F13" s="44"/>
+      <c r="G13" s="42">
         <v>40</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="43">
         <f>HEX2DEC(G13)</f>
         <v>64</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="42">
         <v>40</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="43">
         <f>HEX2DEC(I13)</f>
         <v>64</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="42">
         <v>40</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="43">
         <f>HEX2DEC(K13)</f>
         <v>64</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="42">
         <v>40</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="43">
         <f>HEX2DEC(M13)</f>
         <v>64</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="42">
         <v>40</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="43">
         <f>HEX2DEC(O13)</f>
         <v>64</v>
       </c>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="37">
+      <c r="A14" s="39">
         <v>7</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <v>80</v>
       </c>
-      <c r="C14" t="s" s="39">
+      <c r="C14" t="s" s="41">
         <v>27</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
+      <c r="D14" s="42"/>
+      <c r="E14" s="43">
         <f>HEX2DEC(D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="40">
+      <c r="F14" s="44"/>
+      <c r="G14" s="42">
         <v>80</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="43">
         <f>HEX2DEC(G14)</f>
         <v>128</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="42">
         <v>80</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="43">
         <f>HEX2DEC(I14)</f>
         <v>128</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="42">
         <v>80</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="43">
         <f>HEX2DEC(K14)</f>
         <v>128</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41">
+      <c r="M14" s="42"/>
+      <c r="N14" s="43">
         <f>HEX2DEC(M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48">
+      <c r="O14" s="49"/>
+      <c r="P14" s="50">
         <f>HEX2DEC(O14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" s="37">
+      <c r="A15" s="39">
         <v>8</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="40">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="43">
+      <c r="C15" t="s" s="45">
         <v>28</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41">
+      <c r="D15" s="42"/>
+      <c r="E15" s="43">
         <f>HEX2DEC(D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="40">
+      <c r="F15" s="44"/>
+      <c r="G15" s="42">
         <v>100</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="43">
         <f>HEX2DEC(G15)</f>
         <v>256</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="42">
         <v>100</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="43">
         <f>HEX2DEC(I15)</f>
         <v>256</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="42">
         <v>100</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="43">
         <f>HEX2DEC(K15)</f>
         <v>256</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48">
+      <c r="M15" s="49"/>
+      <c r="N15" s="50">
         <f>HEX2DEC(M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" ht="17.65" customHeight="1">
-      <c r="A16" s="37">
+      <c r="A16" s="39">
         <v>9</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="40">
         <v>200</v>
       </c>
-      <c r="C16" t="s" s="43">
+      <c r="C16" t="s" s="45">
         <v>29</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="42">
         <v>200</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="43">
         <f>HEX2DEC(D16)</f>
         <v>512</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="40">
+      <c r="F16" s="44"/>
+      <c r="G16" s="42">
         <v>200</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="43">
         <f>HEX2DEC(G16)</f>
         <v>512</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="42">
         <v>200</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="43">
         <f>HEX2DEC(I16)</f>
         <v>512</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="49">
         <v>200</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="50">
         <f>HEX2DEC(K16)</f>
         <v>512</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" ht="17.65" customHeight="1">
-      <c r="A17" s="37">
+      <c r="A17" s="39">
         <v>10</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="40">
         <v>400</v>
       </c>
-      <c r="C17" t="s" s="43">
+      <c r="C17" t="s" s="45">
         <v>30</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41">
+      <c r="D17" s="42"/>
+      <c r="E17" s="43">
         <f>HEX2DEC(D17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40">
+      <c r="F17" s="44"/>
+      <c r="G17" s="42">
         <v>400</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="43">
         <f>HEX2DEC(G17)</f>
         <v>1024</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="49">
         <v>400</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="50">
         <f>HEX2DEC(I17)</f>
         <v>1024</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" ht="17.65" customHeight="1">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <v>11</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="64">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="63">
+      <c r="C18" t="s" s="65">
         <v>31</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50">
         <f>HEX2DEC(D18)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48">
+      <c r="F18" s="44"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50">
         <f>HEX2DEC(G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="65"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="73"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="74">
+      <c r="A20" t="s" s="76">
         <v>32</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" t="s" s="76">
+      <c r="B20" s="77"/>
+      <c r="C20" t="s" s="78">
         <v>33</v>
       </c>
-      <c r="D20" t="s" s="77">
+      <c r="D20" t="s" s="79">
         <f>"0x"&amp;DEC2HEX(D21,3)</f>
         <v>34</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="80">
         <f>SUM(E7:E18)</f>
-        <v>623</v>
-      </c>
-      <c r="F20" s="79"/>
-      <c r="G20" t="s" s="80">
+        <v>639</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" t="s" s="82">
         <f>"0x"&amp;DEC2HEX(G21,3)</f>
         <v>35</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="80">
         <f>SUM(H7:H18)</f>
         <v>2031</v>
       </c>
-      <c r="I20" t="s" s="80">
+      <c r="I20" t="s" s="82">
         <f>"0x"&amp;DEC2HEX(I21,3)</f>
         <v>36</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="80">
         <f>SUM(J7:J18)</f>
         <v>2047</v>
       </c>
-      <c r="K20" t="s" s="80">
+      <c r="K20" t="s" s="82">
         <f>"0x"&amp;DEC2HEX(K21,3)</f>
         <v>37</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="80">
         <f>SUM(L7:L18)</f>
         <v>1023</v>
       </c>
-      <c r="M20" t="s" s="80">
+      <c r="M20" t="s" s="82">
         <f>"0x"&amp;DEC2HEX(M21,3)</f>
         <v>38</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="80">
         <f>SUM(N7:N15)</f>
         <v>103</v>
       </c>
-      <c r="O20" t="s" s="81">
+      <c r="O20" t="s" s="83">
         <f>"0x"&amp;DEC2HEX(O21,3)</f>
         <v>38</v>
       </c>
-      <c r="P20" s="82">
+      <c r="P20" s="84">
         <f>SUM(P7:P14)</f>
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" t="s" s="84">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" t="s" s="86">
         <v>39</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="87">
         <f>DEC2HEX(E20,8)</f>
-        <v>623</v>
-      </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88">
+        <v>639</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90">
         <f>DEC2HEX(H20,8)</f>
         <v>2031</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="88">
+      <c r="H21" s="91"/>
+      <c r="I21" s="90">
         <f>DEC2HEX(J20,8)</f>
         <v>2047</v>
       </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="88">
+      <c r="J21" s="91"/>
+      <c r="K21" s="90">
         <f>DEC2HEX(L20,8)</f>
         <v>1023</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="88">
+      <c r="L21" s="91"/>
+      <c r="M21" s="90">
         <f>DEC2HEX(N20,8)</f>
         <v>103</v>
       </c>
-      <c r="N21" s="89"/>
-      <c r="O21" s="88">
+      <c r="N21" s="91"/>
+      <c r="O21" s="90">
         <f>DEC2HEX(P20,8)</f>
         <v>103</v>
       </c>
-      <c r="P21" s="86"/>
+      <c r="P21" s="92"/>
     </row>
     <row r="22" ht="17.65" customHeight="1">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" t="s" s="91">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" t="s" s="94">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="92">
+      <c r="D22" t="s" s="95">
         <v>41</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" t="s" s="95">
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" t="s" s="98">
         <v>42</v>
       </c>
-      <c r="H22" s="96"/>
-      <c r="I22" t="s" s="95">
+      <c r="H22" s="99"/>
+      <c r="I22" t="s" s="98">
         <v>43</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" t="s" s="95">
+      <c r="J22" s="99"/>
+      <c r="K22" t="s" s="98">
         <v>44</v>
       </c>
-      <c r="L22" s="96"/>
-      <c r="M22" t="s" s="97">
+      <c r="L22" s="99"/>
+      <c r="M22" t="s" s="100">
         <v>45</v>
       </c>
-      <c r="N22" s="98"/>
-      <c r="O22" t="s" s="97">
+      <c r="N22" s="101"/>
+      <c r="O22" t="s" s="100">
         <v>45</v>
       </c>
-      <c r="P22" s="93"/>
+      <c r="P22" s="102"/>
     </row>
     <row r="23" ht="17.65" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="103"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="107"/>
     </row>
     <row r="24" ht="17.65" customHeight="1">
-      <c r="A24" t="s" s="74">
+      <c r="A24" t="s" s="76">
         <v>46</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" t="s" s="104">
+      <c r="B24" s="77"/>
+      <c r="C24" t="s" s="108">
         <v>47</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" t="s" s="108">
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
+      <c r="G24" t="s" s="112">
         <v>48</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" t="s" s="108">
+      <c r="H24" s="113"/>
+      <c r="I24" t="s" s="112">
         <v>48</v>
       </c>
-      <c r="J24" s="109"/>
-      <c r="K24" t="s" s="108">
+      <c r="J24" s="113"/>
+      <c r="K24" t="s" s="112">
         <v>48</v>
       </c>
-      <c r="L24" s="109"/>
-      <c r="M24" t="s" s="108">
+      <c r="L24" s="113"/>
+      <c r="M24" t="s" s="112">
         <v>48</v>
       </c>
-      <c r="N24" s="109"/>
-      <c r="O24" t="s" s="110">
+      <c r="N24" s="113"/>
+      <c r="O24" t="s" s="114">
         <v>48</v>
       </c>
-      <c r="P24" s="111"/>
+      <c r="P24" s="115"/>
     </row>
     <row r="25" ht="17.65" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" t="s" s="112">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" t="s" s="116">
         <v>49</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
-      <c r="G25" t="s" s="108">
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" t="s" s="112">
         <v>50</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" t="s" s="108">
+      <c r="H25" s="120"/>
+      <c r="I25" t="s" s="112">
         <v>50</v>
       </c>
-      <c r="J25" s="116"/>
-      <c r="K25" t="s" s="108">
+      <c r="J25" s="120"/>
+      <c r="K25" t="s" s="112">
         <v>50</v>
       </c>
-      <c r="L25" s="116"/>
-      <c r="M25" t="s" s="108">
+      <c r="L25" s="120"/>
+      <c r="M25" t="s" s="112">
         <v>50</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" t="s" s="110">
+      <c r="N25" s="120"/>
+      <c r="O25" t="s" s="114">
         <v>50</v>
       </c>
-      <c r="P25" s="111"/>
+      <c r="P25" s="115"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" t="s" s="117">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" t="s" s="121">
         <v>51</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
-      <c r="G26" t="s" s="108">
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" t="s" s="112">
         <v>52</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" t="s" s="108">
+      <c r="H26" s="120"/>
+      <c r="I26" t="s" s="112">
         <v>43</v>
       </c>
-      <c r="J26" s="116"/>
-      <c r="K26" t="s" s="108">
+      <c r="J26" s="120"/>
+      <c r="K26" t="s" s="112">
         <v>44</v>
       </c>
-      <c r="L26" s="116"/>
-      <c r="M26" t="s" s="108">
+      <c r="L26" s="120"/>
+      <c r="M26" t="s" s="112">
         <v>53</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" t="s" s="110">
+      <c r="N26" s="120"/>
+      <c r="O26" t="s" s="114">
         <v>54</v>
       </c>
-      <c r="P26" s="111"/>
+      <c r="P26" s="115"/>
     </row>
     <row r="27" ht="17.65" customHeight="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" t="s" s="118">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" t="s" s="122">
         <v>55</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="G27" t="s" s="122">
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" t="s" s="126">
         <v>42</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" t="s" s="122">
+      <c r="H27" s="127"/>
+      <c r="I27" t="s" s="126">
         <v>43</v>
       </c>
-      <c r="J27" s="123"/>
-      <c r="K27" t="s" s="122">
+      <c r="J27" s="127"/>
+      <c r="K27" t="s" s="126">
         <v>44</v>
       </c>
-      <c r="L27" s="123"/>
-      <c r="M27" t="s" s="122">
+      <c r="L27" s="127"/>
+      <c r="M27" t="s" s="126">
         <v>45</v>
       </c>
-      <c r="N27" s="123"/>
-      <c r="O27" t="s" s="124">
+      <c r="N27" s="127"/>
+      <c r="O27" t="s" s="128">
         <v>45</v>
       </c>
-      <c r="P27" s="111"/>
+      <c r="P27" s="115"/>
+    </row>
+    <row r="28" ht="16.6" customHeight="1">
+      <c r="A28" s="129"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="132"/>
+    </row>
+    <row r="29" ht="16.6" customHeight="1">
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="132"/>
+    </row>
+    <row r="30" ht="16.6" customHeight="1">
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="132"/>
+    </row>
+    <row r="31" ht="16.6" customHeight="1">
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="132"/>
+    </row>
+    <row r="32" ht="16.6" customHeight="1">
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="132"/>
+    </row>
+    <row r="33" ht="16.6" customHeight="1">
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="132"/>
+    </row>
+    <row r="34" ht="16.6" customHeight="1">
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
+      <c r="P34" s="132"/>
+    </row>
+    <row r="35" ht="16.6" customHeight="1">
+      <c r="A35" s="133"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="134"/>
+      <c r="P35" s="132"/>
+    </row>
+    <row r="36" ht="16.6" customHeight="1">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="132"/>
+    </row>
+    <row r="37" ht="16.6" customHeight="1">
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="132"/>
+    </row>
+    <row r="38" ht="16.6" customHeight="1">
+      <c r="A38" s="133"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="132"/>
+    </row>
+    <row r="39" ht="16.6" customHeight="1">
+      <c r="A39" s="133"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="132"/>
+    </row>
+    <row r="40" ht="16.6" customHeight="1">
+      <c r="A40" s="133"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="134"/>
+      <c r="P40" s="132"/>
+    </row>
+    <row r="41" ht="16.6" customHeight="1">
+      <c r="A41" s="133"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
+      <c r="P41" s="132"/>
+    </row>
+    <row r="42" ht="16.6" customHeight="1">
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="132"/>
+    </row>
+    <row r="43" ht="16.6" customHeight="1">
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
+      <c r="P43" s="132"/>
+    </row>
+    <row r="44" ht="16.6" customHeight="1">
+      <c r="A44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="132"/>
+    </row>
+    <row r="45" ht="16.6" customHeight="1">
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="132"/>
+    </row>
+    <row r="46" ht="16.6" customHeight="1">
+      <c r="A46" s="133"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="134"/>
+      <c r="P46" s="132"/>
+    </row>
+    <row r="47" ht="16.6" customHeight="1">
+      <c r="A47" s="133"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="134"/>
+      <c r="O47" s="134"/>
+      <c r="P47" s="132"/>
+    </row>
+    <row r="48" ht="16.6" customHeight="1">
+      <c r="A48" s="133"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="134"/>
+      <c r="P48" s="132"/>
+    </row>
+    <row r="49" ht="16.6" customHeight="1">
+      <c r="A49" s="133"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="134"/>
+      <c r="P49" s="132"/>
+    </row>
+    <row r="50" ht="16.6" customHeight="1">
+      <c r="A50" s="133"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="134"/>
+      <c r="P50" s="132"/>
+    </row>
+    <row r="51" ht="16.6" customHeight="1">
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="134"/>
+      <c r="P51" s="132"/>
+    </row>
+    <row r="52" ht="16.6" customHeight="1">
+      <c r="A52" s="133"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="134"/>
+      <c r="P52" s="132"/>
+    </row>
+    <row r="53" ht="16.6" customHeight="1">
+      <c r="A53" s="133"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="134"/>
+      <c r="P53" s="132"/>
+    </row>
+    <row r="54" ht="16.6" customHeight="1">
+      <c r="A54" s="133"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="132"/>
+    </row>
+    <row r="55" ht="16.6" customHeight="1">
+      <c r="A55" s="133"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="134"/>
+      <c r="P55" s="132"/>
+    </row>
+    <row r="56" ht="16.6" customHeight="1">
+      <c r="A56" s="133"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="132"/>
+    </row>
+    <row r="57" ht="16.6" customHeight="1">
+      <c r="A57" s="133"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="134"/>
+      <c r="P57" s="132"/>
+    </row>
+    <row r="58" ht="16.6" customHeight="1">
+      <c r="A58" s="133"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="134"/>
+      <c r="P58" s="132"/>
+    </row>
+    <row r="59" ht="16.6" customHeight="1">
+      <c r="A59" s="133"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="134"/>
+      <c r="P59" s="132"/>
+    </row>
+    <row r="60" ht="16.6" customHeight="1">
+      <c r="A60" s="133"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="132"/>
+    </row>
+    <row r="61" ht="16.6" customHeight="1">
+      <c r="A61" s="135"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="124"/>
+      <c r="O61" s="124"/>
+      <c r="P61" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -8047,236 +8814,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.4844" style="125" customWidth="1"/>
-    <col min="2" max="2" width="6.79688" style="125" customWidth="1"/>
-    <col min="3" max="3" width="33" style="125" customWidth="1"/>
-    <col min="4" max="4" width="7.57031" style="125" customWidth="1"/>
-    <col min="5" max="5" width="88.8906" style="125" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="137" customWidth="1"/>
+    <col min="2" max="2" width="6.85156" style="137" customWidth="1"/>
+    <col min="3" max="3" width="33" style="137" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="137" customWidth="1"/>
+    <col min="5" max="5" width="88.8516" style="137" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="138">
         <v>56</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="140"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="129"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="144"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="130">
+      <c r="A3" t="s" s="145">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="131">
+      <c r="B3" t="s" s="146">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="132">
+      <c r="C3" t="s" s="147">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="132">
+      <c r="D3" t="s" s="147">
         <v>59</v>
       </c>
-      <c r="E3" t="s" s="132">
+      <c r="E3" t="s" s="147">
         <v>60</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="136"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="137">
+      <c r="A5" s="152">
         <v>1</v>
       </c>
-      <c r="B5" s="137">
+      <c r="B5" s="152">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="138">
+      <c r="C5" t="s" s="153">
         <v>61</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="154">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="140">
+      <c r="E5" t="s" s="155">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="137">
+      <c r="A6" s="152">
         <v>2</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" t="s" s="138">
+      <c r="B6" s="152"/>
+      <c r="C6" t="s" s="153">
         <v>63</v>
       </c>
-      <c r="D6" s="139">
+      <c r="D6" s="154">
         <f>HEX2DEC(B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="140">
+      <c r="E6" t="s" s="155">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="137">
+      <c r="A7" s="152">
         <v>4</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" t="s" s="138">
+      <c r="B7" s="152"/>
+      <c r="C7" t="s" s="153">
         <v>65</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="154">
         <f>HEX2DEC(B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="140">
+      <c r="E7" t="s" s="155">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="137">
+      <c r="A8" s="152">
         <v>8</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" t="s" s="138">
+      <c r="B8" s="152"/>
+      <c r="C8" t="s" s="153">
         <v>67</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="154">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="140">
+      <c r="E8" t="s" s="155">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="137">
+      <c r="A9" s="152">
         <v>10</v>
       </c>
-      <c r="B9" s="137">
+      <c r="B9" s="152">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="138">
+      <c r="C9" t="s" s="153">
         <v>69</v>
       </c>
-      <c r="D9" s="139">
+      <c r="D9" s="154">
         <f>HEX2DEC(B9)</f>
         <v>16</v>
       </c>
-      <c r="E9" t="s" s="140">
+      <c r="E9" t="s" s="155">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="137">
+      <c r="A10" s="152">
         <v>20</v>
       </c>
-      <c r="B10" s="137"/>
-      <c r="C10" t="s" s="138">
+      <c r="B10" s="152"/>
+      <c r="C10" t="s" s="153">
         <v>71</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="154">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="140">
+      <c r="E10" t="s" s="155">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="137">
+      <c r="A11" s="152">
         <v>40</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" t="s" s="138">
+      <c r="B11" s="152"/>
+      <c r="C11" t="s" s="153">
         <v>73</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="154">
         <f>HEX2DEC(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="140">
+      <c r="E11" t="s" s="155">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="137">
+      <c r="A12" s="152">
         <v>80</v>
       </c>
-      <c r="B12" s="137">
+      <c r="B12" s="152">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="138">
+      <c r="C12" t="s" s="153">
         <v>75</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="154">
         <f>HEX2DEC(B12)</f>
         <v>128</v>
       </c>
-      <c r="E12" t="s" s="141">
+      <c r="E12" t="s" s="156">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" t="s" s="142">
+      <c r="A13" t="s" s="157">
         <v>77</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144">
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159">
         <f>SUM(D5:D12)</f>
         <v>145</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" t="s" s="151">
+      <c r="A15" t="s" s="166">
         <v>46</v>
       </c>
-      <c r="B15" t="s" s="152">
+      <c r="B15" t="s" s="167">
         <v>78</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154">
+      <c r="C15" s="168"/>
+      <c r="D15" s="169">
         <v>17</v>
       </c>
-      <c r="E15" s="155"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="156"/>
-      <c r="B16" t="s" s="157">
+      <c r="A16" s="171"/>
+      <c r="B16" t="s" s="172">
         <v>79</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="159">
+      <c r="C16" s="173"/>
+      <c r="D16" s="174">
         <v>145</v>
       </c>
-      <c r="E16" s="160"/>
+      <c r="E16" s="175"/>
+    </row>
+    <row r="17" ht="16.6" customHeight="1">
+      <c r="A17" s="176"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="132"/>
+    </row>
+    <row r="18" ht="16.6" customHeight="1">
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="132"/>
+    </row>
+    <row r="19" ht="16.6" customHeight="1">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="132"/>
+    </row>
+    <row r="20" ht="16.6" customHeight="1">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="132"/>
+    </row>
+    <row r="21" ht="16.6" customHeight="1">
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="132"/>
+    </row>
+    <row r="22" ht="16.6" customHeight="1">
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="132"/>
+    </row>
+    <row r="23" ht="16.6" customHeight="1">
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="132"/>
+    </row>
+    <row r="24" ht="16.6" customHeight="1">
+      <c r="A24" s="135"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8297,358 +9120,430 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="161" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="161" customWidth="1"/>
-    <col min="4" max="4" width="10.6484" style="161" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="161" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="178" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="178" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="178" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="178" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="178" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="179"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="165">
+      <c r="A3" t="s" s="184">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="165">
+      <c r="B3" t="s" s="184">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="165">
+      <c r="C3" t="s" s="184">
         <v>81</v>
       </c>
-      <c r="D3" t="s" s="165">
+      <c r="D3" t="s" s="184">
         <v>59</v>
       </c>
+      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="185"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="169">
+      <c r="A5" s="189">
         <v>1</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="189">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="170">
+      <c r="C5" t="s" s="190">
         <v>82</v>
       </c>
-      <c r="D5" s="171">
+      <c r="D5" s="191">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
+      <c r="E5" s="185"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="169">
+      <c r="A6" s="189">
         <v>2</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="189">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="170">
+      <c r="C6" t="s" s="190">
         <v>83</v>
       </c>
-      <c r="D6" s="171">
+      <c r="D6" s="191">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
+      <c r="E6" s="185"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="168"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="185"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="169">
+      <c r="A8" s="189">
         <v>100</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="189">
         <v>100</v>
       </c>
-      <c r="C8" t="s" s="170">
+      <c r="C8" t="s" s="190">
         <v>84</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="191">
         <f>HEX2DEC(B8)</f>
         <v>256</v>
       </c>
+      <c r="E8" s="185"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="169">
+      <c r="A9" s="189">
         <v>200</v>
       </c>
-      <c r="B9" s="169">
+      <c r="B9" s="189">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="170">
+      <c r="C9" t="s" s="190">
         <v>85</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="191">
         <f>HEX2DEC(B9)</f>
         <v>512</v>
       </c>
+      <c r="E9" s="185"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="169">
+      <c r="A10" s="189">
         <v>400</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" t="s" s="170">
+      <c r="B10" s="189"/>
+      <c r="C10" t="s" s="190">
         <v>86</v>
       </c>
-      <c r="D10" s="171">
+      <c r="D10" s="191">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
+      <c r="E10" s="185"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="169">
+      <c r="A11" s="189">
         <v>800</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="189">
         <v>800</v>
       </c>
-      <c r="C11" t="s" s="170">
+      <c r="C11" t="s" s="190">
         <v>87</v>
       </c>
-      <c r="D11" s="171">
+      <c r="D11" s="191">
         <f>HEX2DEC(B11)</f>
         <v>2048</v>
       </c>
+      <c r="E11" s="185"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="169">
+      <c r="A12" s="189">
         <v>1000</v>
       </c>
-      <c r="B12" s="169"/>
-      <c r="C12" t="s" s="170">
+      <c r="B12" s="189"/>
+      <c r="C12" t="s" s="190">
         <v>88</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="191">
         <f>HEX2DEC(B12)</f>
         <v>0</v>
       </c>
+      <c r="E12" s="185"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="169">
+      <c r="A13" s="189">
         <v>2000</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" t="s" s="170">
+      <c r="B13" s="189"/>
+      <c r="C13" t="s" s="190">
         <v>89</v>
       </c>
-      <c r="D13" s="171">
+      <c r="D13" s="191">
         <f>HEX2DEC(B13)</f>
         <v>0</v>
       </c>
+      <c r="E13" s="185"/>
     </row>
     <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="169">
+      <c r="A14" s="189">
         <v>4000</v>
       </c>
-      <c r="B14" s="169"/>
-      <c r="C14" t="s" s="170">
+      <c r="B14" s="189"/>
+      <c r="C14" t="s" s="190">
         <v>90</v>
       </c>
-      <c r="D14" s="171">
+      <c r="D14" s="191">
         <f>HEX2DEC(B14)</f>
         <v>0</v>
       </c>
+      <c r="E14" s="185"/>
     </row>
     <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="168"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="185"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="169">
+      <c r="A16" s="189">
         <v>10000</v>
       </c>
-      <c r="B16" s="169">
+      <c r="B16" s="189">
         <v>10000</v>
       </c>
-      <c r="C16" t="s" s="170">
+      <c r="C16" t="s" s="190">
         <v>91</v>
       </c>
-      <c r="D16" s="171">
+      <c r="D16" s="191">
         <f>HEX2DEC(B16)</f>
         <v>65536</v>
       </c>
+      <c r="E16" s="185"/>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="169">
+      <c r="A17" s="189">
         <v>20000</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" t="s" s="170">
+      <c r="B17" s="189"/>
+      <c r="C17" t="s" s="190">
         <v>92</v>
       </c>
-      <c r="D17" s="171">
+      <c r="D17" s="191">
         <f>HEX2DEC(B17)</f>
         <v>0</v>
       </c>
+      <c r="E17" s="185"/>
     </row>
     <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="169">
+      <c r="A18" s="189">
         <v>40000</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" t="s" s="170">
+      <c r="B18" s="189"/>
+      <c r="C18" t="s" s="190">
         <v>93</v>
       </c>
-      <c r="D18" s="171">
+      <c r="D18" s="191">
         <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
+      <c r="E18" s="185"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="169">
+      <c r="A19" s="189">
         <v>80000</v>
       </c>
-      <c r="B19" s="169">
+      <c r="B19" s="189">
         <v>80000</v>
       </c>
-      <c r="C19" t="s" s="170">
+      <c r="C19" t="s" s="190">
         <v>94</v>
       </c>
-      <c r="D19" s="171">
+      <c r="D19" s="191">
         <f>HEX2DEC(B19)</f>
         <v>524288</v>
       </c>
+      <c r="E19" s="185"/>
     </row>
     <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="169">
+      <c r="A20" s="189">
         <v>100000</v>
       </c>
-      <c r="B20" s="169"/>
-      <c r="C20" t="s" s="170">
+      <c r="B20" s="189"/>
+      <c r="C20" t="s" s="190">
         <v>95</v>
       </c>
-      <c r="D20" s="171">
+      <c r="D20" s="191">
         <f>HEX2DEC(B20)</f>
         <v>0</v>
       </c>
+      <c r="E20" s="185"/>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="169">
+      <c r="A21" s="189">
         <v>200000</v>
       </c>
-      <c r="B21" s="169">
+      <c r="B21" s="189">
         <v>200000</v>
       </c>
-      <c r="C21" t="s" s="170">
+      <c r="C21" t="s" s="190">
         <v>96</v>
       </c>
-      <c r="D21" s="171">
+      <c r="D21" s="191">
         <f>HEX2DEC(B21)</f>
         <v>2097152</v>
       </c>
+      <c r="E21" s="185"/>
     </row>
     <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="169">
+      <c r="A22" s="189">
         <v>400000</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" t="s" s="170">
+      <c r="B22" s="189"/>
+      <c r="C22" t="s" s="190">
         <v>97</v>
       </c>
-      <c r="D22" s="171">
+      <c r="D22" s="191">
         <f>HEX2DEC(B22)</f>
         <v>0</v>
       </c>
+      <c r="E22" s="185"/>
     </row>
     <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="169">
+      <c r="A23" s="189">
         <v>800000</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" t="s" s="170">
+      <c r="B23" s="189"/>
+      <c r="C23" t="s" s="190">
         <v>98</v>
       </c>
-      <c r="D23" s="171">
+      <c r="D23" s="191">
         <f>HEX2DEC(B23)</f>
         <v>0</v>
       </c>
+      <c r="E23" s="185"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="169">
+      <c r="A24" s="189">
         <v>1000000</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" t="s" s="170">
+      <c r="B24" s="189"/>
+      <c r="C24" t="s" s="190">
         <v>99</v>
       </c>
-      <c r="D24" s="171">
+      <c r="D24" s="191">
         <f>HEX2DEC(B24)</f>
         <v>0</v>
       </c>
+      <c r="E24" s="185"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="168"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="185"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" t="s" s="142">
+      <c r="A26" t="s" s="157">
         <v>100</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="173">
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="193">
         <f>SUM(D5:D24)</f>
         <v>2689795</v>
       </c>
+      <c r="E26" s="185"/>
     </row>
     <row r="27" ht="16.65" customHeight="1">
-      <c r="A27" s="174"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="176"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="132"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="177">
+      <c r="A28" t="s" s="197">
         <v>101</v>
       </c>
-      <c r="B28" t="s" s="178">
+      <c r="B28" t="s" s="198">
         <v>78</v>
       </c>
-      <c r="C28" s="153"/>
-      <c r="D28" s="179">
+      <c r="C28" s="168"/>
+      <c r="D28" s="199">
         <v>17760515</v>
       </c>
+      <c r="E28" s="185"/>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="180"/>
-      <c r="B29" t="s" s="181">
+      <c r="A29" s="200"/>
+      <c r="B29" t="s" s="201">
         <v>102</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="182">
+      <c r="C29" s="35"/>
+      <c r="D29" s="202">
         <v>0</v>
       </c>
+      <c r="E29" s="185"/>
+    </row>
+    <row r="30" ht="16.6" customHeight="1">
+      <c r="A30" s="203"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="132"/>
+    </row>
+    <row r="31" ht="16.6" customHeight="1">
+      <c r="A31" s="133"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="132"/>
+    </row>
+    <row r="32" ht="16.6" customHeight="1">
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="132"/>
+    </row>
+    <row r="33" ht="16.6" customHeight="1">
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="132"/>
+    </row>
+    <row r="34" ht="16.6" customHeight="1">
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="132"/>
+    </row>
+    <row r="35" ht="16.6" customHeight="1">
+      <c r="A35" s="135"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8669,127 +9564,201 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="183" customWidth="1"/>
-    <col min="2" max="2" width="7.04688" style="183" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="183" customWidth="1"/>
-    <col min="4" max="4" width="8.07031" style="183" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="183" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="205" customWidth="1"/>
+    <col min="2" max="2" width="7" style="205" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="205" customWidth="1"/>
+    <col min="4" max="4" width="8" style="205" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="205" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="205" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="138">
         <v>103</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="179"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="127"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="131">
+      <c r="A3" t="s" s="146">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="131">
+      <c r="B3" t="s" s="146">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="132">
+      <c r="C3" t="s" s="147">
         <v>104</v>
       </c>
-      <c r="D3" t="s" s="132">
+      <c r="D3" t="s" s="147">
         <v>59</v>
       </c>
+      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="185"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="137">
+      <c r="A5" s="152">
         <v>1</v>
       </c>
-      <c r="B5" s="137">
+      <c r="B5" s="152">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="138">
+      <c r="C5" t="s" s="153">
         <v>105</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="154">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
+      <c r="E5" s="185"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="137">
+      <c r="A6" s="152">
         <v>2</v>
       </c>
-      <c r="B6" s="137">
+      <c r="B6" s="152">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="138">
+      <c r="C6" t="s" s="153">
         <v>106</v>
       </c>
-      <c r="D6" s="139">
+      <c r="D6" s="154">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
+      <c r="E6" s="185"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="137">
+      <c r="A7" s="152">
         <v>4</v>
       </c>
-      <c r="B7" s="137">
+      <c r="B7" s="152">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="138">
+      <c r="C7" t="s" s="153">
         <v>107</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="154">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
+      <c r="E7" s="185"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="137">
+      <c r="A8" s="152">
         <v>8</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" t="s" s="138">
+      <c r="B8" s="152"/>
+      <c r="C8" t="s" s="153">
         <v>108</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="154">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
+      <c r="E8" s="185"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="134"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="185"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" t="s" s="184">
+      <c r="A10" t="s" s="207">
         <v>109</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="185">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="208">
         <f>SUM(D5:D8)</f>
         <v>7</v>
       </c>
+      <c r="E10" s="185"/>
+    </row>
+    <row r="11" ht="16.6" customHeight="1">
+      <c r="A11" s="203"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="132"/>
+    </row>
+    <row r="12" ht="16.6" customHeight="1">
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="132"/>
+    </row>
+    <row r="13" ht="16.6" customHeight="1">
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="132"/>
+    </row>
+    <row r="14" ht="16.6" customHeight="1">
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="132"/>
+    </row>
+    <row r="15" ht="16.6" customHeight="1">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="132"/>
+    </row>
+    <row r="16" ht="16.6" customHeight="1">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="132"/>
+    </row>
+    <row r="17" ht="16.6" customHeight="1">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="132"/>
+    </row>
+    <row r="18" ht="16.6" customHeight="1">
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="132"/>
+    </row>
+    <row r="19" ht="16.6" customHeight="1">
+      <c r="A19" s="135"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8807,167 +9776,238 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="186" customWidth="1"/>
-    <col min="2" max="2" width="25.9219" style="186" customWidth="1"/>
-    <col min="3" max="3" width="69.5703" style="186" customWidth="1"/>
-    <col min="4" max="4" width="8.10156" style="186" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="186" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="209" customWidth="1"/>
+    <col min="2" max="2" width="26" style="209" customWidth="1"/>
+    <col min="3" max="3" width="69.5" style="209" customWidth="1"/>
+    <col min="4" max="4" width="8.17188" style="209" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="209" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="209" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="138">
         <v>110</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="179"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="189"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="132">
+      <c r="A3" t="s" s="147">
         <v>111</v>
       </c>
-      <c r="B3" t="s" s="132">
+      <c r="B3" t="s" s="147">
         <v>112</v>
       </c>
-      <c r="C3" t="s" s="132">
+      <c r="C3" t="s" s="147">
         <v>113</v>
       </c>
-      <c r="D3" t="s" s="132">
+      <c r="D3" t="s" s="147">
         <v>114</v>
       </c>
+      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="190"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="185"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="192">
+      <c r="A5" s="215">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="193">
+      <c r="B5" t="s" s="216">
         <v>115</v>
       </c>
-      <c r="C5" t="s" s="193">
+      <c r="C5" t="s" s="216">
         <v>116</v>
       </c>
-      <c r="D5" s="190"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="185"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="215">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="193">
+      <c r="B6" t="s" s="216">
         <v>117</v>
       </c>
-      <c r="C6" t="s" s="193">
+      <c r="C6" t="s" s="216">
         <v>118</v>
       </c>
-      <c r="D6" s="190"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="185"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="192">
+      <c r="A7" s="215">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="193">
+      <c r="B7" t="s" s="216">
         <v>119</v>
       </c>
-      <c r="C7" t="s" s="193">
+      <c r="C7" t="s" s="216">
         <v>120</v>
       </c>
-      <c r="D7" s="190"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="185"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="192">
+      <c r="A8" s="215">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="193">
+      <c r="B8" t="s" s="216">
         <v>121</v>
       </c>
-      <c r="C8" t="s" s="193">
+      <c r="C8" t="s" s="216">
         <v>122</v>
       </c>
-      <c r="D8" s="190"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="185"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="194">
+      <c r="A9" s="217">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="193">
+      <c r="B9" t="s" s="216">
         <v>123</v>
       </c>
-      <c r="C9" t="s" s="193">
+      <c r="C9" t="s" s="216">
         <v>118</v>
       </c>
-      <c r="D9" s="190"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="185"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="194">
+      <c r="A10" s="217">
         <v>256</v>
       </c>
-      <c r="B10" t="s" s="193">
+      <c r="B10" t="s" s="216">
         <v>124</v>
       </c>
-      <c r="C10" t="s" s="193">
+      <c r="C10" t="s" s="216">
         <v>125</v>
       </c>
-      <c r="D10" s="190"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="185"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="194">
+      <c r="A11" s="217">
         <v>512</v>
       </c>
-      <c r="B11" t="s" s="193">
+      <c r="B11" t="s" s="216">
         <v>126</v>
       </c>
-      <c r="C11" t="s" s="193">
+      <c r="C11" t="s" s="216">
         <v>127</v>
       </c>
-      <c r="D11" s="190"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="185"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="194">
+      <c r="A12" s="217">
         <v>1024</v>
       </c>
-      <c r="B12" t="s" s="193">
+      <c r="B12" t="s" s="216">
         <v>128</v>
       </c>
-      <c r="C12" t="s" s="193">
+      <c r="C12" t="s" s="216">
         <v>129</v>
       </c>
-      <c r="D12" s="194">
+      <c r="D12" s="217">
         <v>1024</v>
       </c>
+      <c r="E12" s="185"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="190"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="190"/>
+      <c r="A13" s="213"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="185"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="196">
+      <c r="A14" t="s" s="219">
         <v>130</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="197">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="220">
         <f>SUM(D5:D12)</f>
         <v>1024</v>
       </c>
+      <c r="E14" s="185"/>
+    </row>
+    <row r="15" ht="16.6" customHeight="1">
+      <c r="A15" s="203"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="204"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="132"/>
+    </row>
+    <row r="16" ht="16.6" customHeight="1">
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="132"/>
+    </row>
+    <row r="17" ht="16.6" customHeight="1">
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="132"/>
+    </row>
+    <row r="18" ht="16.6" customHeight="1">
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="132"/>
+    </row>
+    <row r="19" ht="16.6" customHeight="1">
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="132"/>
+    </row>
+    <row r="20" ht="16.6" customHeight="1">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="132"/>
+    </row>
+    <row r="21" ht="16.6" customHeight="1">
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="132"/>
+    </row>
+    <row r="22" ht="16.6" customHeight="1">
+      <c r="A22" s="135"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/B_OC_Calculators/OpenCoreCalcs.xlsx
+++ b/B_OC_Calculators/OpenCoreCalcs.xlsx
@@ -29,7 +29,7 @@
     <t>AllowToggleSIP</t>
   </si>
   <si>
-    <t>macOS 11 / 12</t>
+    <t>macOS 11+</t>
   </si>
   <si>
     <t>10.14 / 10.15</t>
@@ -50,7 +50,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="10"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>HEX</t>
@@ -67,7 +67,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="10"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>STORAGE</t>
@@ -101,7 +101,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="10"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t xml:space="preserve">DEC (Bit </t>
@@ -110,7 +110,7 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="10"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>2</t>
@@ -118,7 +118,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="10"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
       <t>)</t>
@@ -170,7 +170,7 @@
     <t>0x27F</t>
   </si>
   <si>
-    <t>0x7EF</t>
+    <t>0x867</t>
   </si>
   <si>
     <t>0x7FF</t>
@@ -191,7 +191,7 @@
     <t>7F 02 00 00</t>
   </si>
   <si>
-    <t>EF 07 00 00</t>
+    <t>67 08 00 00</t>
   </si>
   <si>
     <t>FF 07 00 00</t>
@@ -466,7 +466,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="########"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -480,28 +480,23 @@
     <font>
       <sz val="15"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="10"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="10"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -572,7 +567,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="11"/>
+      <color indexed="10"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
@@ -618,7 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -641,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="124">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -650,87 +645,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
+      <right style="hair">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="9"/>
       </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
       <right style="hair">
         <color indexed="9"/>
       </right>
@@ -738,7 +805,7 @@
         <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,18 +820,468 @@
         <color indexed="9"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
       <right style="hair">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -773,58 +1290,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
+      </right>
+      <top style="dotted">
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,7 +1327,7 @@
         <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -847,12 +1338,222 @@
       <left style="hair">
         <color indexed="9"/>
       </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -862,425 +1563,599 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="9"/>
+      </left>
       <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
+      </right>
       <top style="hair">
         <color indexed="9"/>
       </top>
       <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
       </right>
       <top style="hair">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
       </top>
       <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="dotted">
+        <color indexed="12"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="9"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,971 +2166,12 @@
       <right style="hair">
         <color indexed="8"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
+      <top style="dotted">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="hair">
-        <color indexed="9"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="dotted">
-        <color indexed="10"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="dotted">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2264,668 +2180,605 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="73" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="78" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="77" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="80" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="81" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="82" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="83" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="84" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="88" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="92" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="93" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="95" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="96" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="98" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" borderId="86" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="87" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="89" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="90" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="92" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="93" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="95" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="97" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="98" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="96" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="100" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="103" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="80" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="106" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="107" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="108" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="109" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="110" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="111" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="113" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="110" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="115" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="116" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="117" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="118" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" borderId="91" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="101" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="91" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="119" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="105" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="101" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="105" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="120" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="117" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="121" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="122" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="123" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="85" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="1" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="1" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2946,15 +2799,15 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="fffa7d00"/>
       <rgbColor rgb="fff2f2f2"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff2600"/>
       <rgbColor rgb="ff80f16b"/>
       <rgbColor rgb="ffaaede4"/>
       <rgbColor rgb="ff848484"/>
       <rgbColor rgb="ffd2d2d2"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff0563c1"/>
       <rgbColor rgb="ff006100"/>
     </indexedColors>
   </colors>
@@ -2967,14 +2820,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164152</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>33355</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59752</xdr:rowOff>
+      <xdr:colOff>71455</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35486</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2983,8 +2836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19051" y="5938207"/>
-          <a:ext cx="11374457" cy="2860416"/>
+          <a:off x="-19051" y="6124758"/>
+          <a:ext cx="11323657" cy="2860419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3002,7 +2855,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -3022,7 +2875,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3059,7 +2912,7 @@
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3109,7 +2962,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3160,7 +3013,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3211,7 +3064,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3262,7 +3115,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3417,7 +3270,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3455,9 +3308,9 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="FF2600"/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
@@ -3492,71 +3345,7 @@
             </a:rPr>
             <a:t>: In macOS BigSur/Monterey, Bit 4 an 11 need to be unset in order to get notified about System Updates!</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-            <a:solidFill>
-              <a:srgbClr val="FF2600"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>NOTE 2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
-          </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3583,7 +3372,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3605,7 +3394,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>NOTE 3: </a:t>
+            <a:t>NOTE 2</a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
@@ -3618,9 +3407,9 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
+            <a:t>: The Hex value (green) for Clover can be used as is, no byte swapping and additional 00’s are required.</a:t>
           </a:r>
-          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3669,6 +3458,70 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
+            <a:t>NOTE 3: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>The column »AllowToggleSIP« lists the flags applied when using the »ToggleSIP« feature in OpenCore’s BootPicker (has to be enabled in config.plist first)</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
             <a:t>NOTE 4</a:t>
           </a:r>
           <a:r>
@@ -3693,14 +3546,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>20276</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>84589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>74572</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>22556</xdr:rowOff>
+      <xdr:colOff>112672</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>86871</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3709,8 +3562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19051" y="8548326"/>
-          <a:ext cx="7554874" cy="4218681"/>
+          <a:off x="-19050" y="8823459"/>
+          <a:ext cx="7504073" cy="4218683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3728,12 +3581,12 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3784,7 +3637,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3822,7 +3675,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3860,7 +3713,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3911,7 +3764,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3962,7 +3815,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4013,7 +3866,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4064,7 +3917,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4115,7 +3968,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4166,7 +4019,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4217,7 +4070,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4268,7 +4121,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4319,7 +4172,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4370,7 +4223,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4421,7 +4274,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4472,7 +4325,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4523,7 +4376,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4574,7 +4427,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4625,7 +4478,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4663,7 +4516,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4678,7 +4531,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4718,11 +4571,11 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="sng">
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:srgbClr val="0563C1"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
+                  <a:srgbClr val="0563C1"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="+mn-lt"/>
@@ -4747,14 +4600,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131665</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>449579</xdr:colOff>
+      <xdr:colOff>411479</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>94073</xdr:rowOff>
+      <xdr:rowOff>201659</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4763,8 +4616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19051" y="3332700"/>
-          <a:ext cx="4856481" cy="1649604"/>
+          <a:off x="-19050" y="3440284"/>
+          <a:ext cx="4818380" cy="1649606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4782,7 +4635,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4802,7 +4655,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4876,7 +4729,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4927,7 +4780,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5069,14 +4922,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171929</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>97959</xdr:rowOff>
+      <xdr:rowOff>174060</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5085,8 +4938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6111719"/>
-          <a:ext cx="5181600" cy="1166821"/>
+          <a:off x="-19050" y="6187817"/>
+          <a:ext cx="5143501" cy="1166824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5104,7 +4957,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5124,7 +4977,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5185,7 +5038,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5236,7 +5089,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5289,14 +5142,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139693</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>84335</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118612</xdr:rowOff>
+      <xdr:colOff>46235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17283</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5305,8 +5158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19051" y="2071363"/>
-          <a:ext cx="5100837" cy="1678815"/>
+          <a:off x="-19050" y="2180852"/>
+          <a:ext cx="5062736" cy="1678817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5324,7 +5177,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5344,7 +5197,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5405,7 +5258,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5456,7 +5309,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5507,7 +5360,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5599,13 +5452,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159432</xdr:rowOff>
+      <xdr:rowOff>189874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4790955</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>203295</xdr:rowOff>
+      <xdr:colOff>4752855</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34985</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5614,8 +5467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="2936922"/>
-          <a:ext cx="7508755" cy="1532939"/>
+          <a:off x="-19050" y="2967364"/>
+          <a:ext cx="7470656" cy="2599107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5633,7 +5486,7 @@
         </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
+        <a:bodyPr wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5653,7 +5506,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5714,7 +5567,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5765,7 +5618,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5816,7 +5669,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5866,7 +5719,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>darkwake=x (x= 514 in this example)</a:t>
+            <a:t>darkwake=x </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
@@ -5879,7 +5732,33 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t> of your config.plist </a:t>
+            <a:t>(x=1024 in this example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> to your config.plist </a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5893,7 +5772,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="147051" marR="0" indent="-147051" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -5930,7 +5809,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>Save, reboot test it.</a:t>
+            <a:t>Save and reboot </a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -5944,7 +5823,287 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+          <a:pPr marL="147052" marR="0" indent="-147052" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buAutoNum type="arabicPeriod" startAt="1"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Test it</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Deprecated Darkwake values</a:t>
+          </a:r>
+          <a:endParaRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="110289" marR="0" indent="-110289" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>darkwake=8: Deprecated since macOS Mavericks. Use darkwake=0 instead!</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="110289" marR="0" indent="-110289" algn="l" defTabSz="914400" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzPct val="100000"/>
+            <a:buFontTx/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>darkwake=10: Deprecated since macOS Mavericks. Use darkwake=2 instead</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -6002,22 +6161,22 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
+            <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Source</a:t>
           </a:r>
@@ -6037,11 +6196,11 @@
           <a:r>
             <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="sng">
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:srgbClr val="0563C1"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="0000FF"/>
+                  <a:srgbClr val="0563C1"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="+mn-lt"/>
@@ -6253,17 +6412,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6291,10 +6450,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -6542,12 +6701,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -6834,7 +6993,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -6862,10 +7021,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -7116,7 +7275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7124,17 +7283,17 @@
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6016" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8438" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1797" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.2969" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.6719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.4453" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.6719" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.8516" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
@@ -7145,1644 +7304,1026 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" t="s" s="14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" t="s" s="14">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="18"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" ht="17.65" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" t="s" s="22">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" t="s" s="22">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" t="s" s="25">
+      <c r="H4" s="20"/>
+      <c r="I4" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" t="s" s="25">
+      <c r="J4" s="23"/>
+      <c r="K4" t="s" s="22">
         <v>6</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" t="s" s="25">
+      <c r="L4" s="23"/>
+      <c r="M4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" t="s" s="25">
+      <c r="N4" s="23"/>
+      <c r="O4" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" ht="17.65" customHeight="1">
-      <c r="A5" t="s" s="27">
+      <c r="A5" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="28">
+      <c r="B5" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="29">
+      <c r="C5" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="30">
+      <c r="D5" t="s" s="28">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="16"/>
-      <c r="G5" t="s" s="30">
+      <c r="E5" s="29"/>
+      <c r="F5" s="13"/>
+      <c r="G5" t="s" s="28">
         <v>12</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" t="s" s="32">
+      <c r="H5" s="29"/>
+      <c r="I5" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" t="s" s="32">
+      <c r="J5" s="31"/>
+      <c r="K5" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" t="s" s="32">
+      <c r="L5" s="31"/>
+      <c r="M5" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" t="s" s="32">
+      <c r="N5" s="31"/>
+      <c r="O5" t="s" s="30">
         <v>16</v>
       </c>
-      <c r="P5" s="33"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" ht="17.65" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" t="s" s="36">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" t="s" s="34">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="37">
+      <c r="D6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="E6" t="s" s="38">
+      <c r="E6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" t="s" s="37">
+      <c r="F6" s="13"/>
+      <c r="G6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="H6" t="s" s="38">
+      <c r="H6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="I6" t="s" s="37">
+      <c r="I6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="J6" t="s" s="38">
+      <c r="J6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="K6" t="s" s="37">
+      <c r="K6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="L6" t="s" s="38">
+      <c r="L6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="M6" t="s" s="37">
+      <c r="M6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="N6" t="s" s="38">
+      <c r="N6" t="s" s="36">
         <v>19</v>
       </c>
-      <c r="O6" t="s" s="37">
+      <c r="O6" t="s" s="35">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="38">
+      <c r="P6" t="s" s="36">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="39">
+      <c r="A7" s="37">
         <v>0</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="41">
+      <c r="C7" t="s" s="39">
         <v>20</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <f>HEX2DEC(D7)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42">
+      <c r="F7" s="42"/>
+      <c r="G7" s="40">
         <v>1</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="41">
         <f>HEX2DEC(G7)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="41">
         <f>HEX2DEC(I7)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="40">
         <v>1</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="41">
         <f>HEX2DEC(K7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="40">
         <v>1</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="41">
         <f>HEX2DEC(M7)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="40">
         <v>1</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="41">
         <f>HEX2DEC(O7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="17.65" customHeight="1">
-      <c r="A8" s="39">
+      <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" t="s" s="45">
+      <c r="C8" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <f>HEX2DEC(D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="42">
+      <c r="F8" s="42"/>
+      <c r="G8" s="40">
         <v>2</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="41">
         <f>HEX2DEC(G8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="40">
         <v>2</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="41">
         <f>HEX2DEC(I8)</f>
         <v>2</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="40">
         <v>2</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="41">
         <f>HEX2DEC(K8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="40">
         <v>2</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <f>HEX2DEC(M8)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="40">
         <v>2</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="41">
         <f>HEX2DEC(O8)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="17.65" customHeight="1">
-      <c r="A9" s="39">
+      <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="45">
+      <c r="C9" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>4</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <f>HEX2DEC(D9)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42">
+      <c r="F9" s="42"/>
+      <c r="G9" s="40">
         <v>4</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="41">
         <f>HEX2DEC(G9)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="40">
         <v>4</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="41">
         <f>HEX2DEC(I9)</f>
         <v>4</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>4</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="41">
         <f>HEX2DEC(K9)</f>
         <v>4</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="40">
         <v>4</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <f>HEX2DEC(M9)</f>
         <v>4</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="40">
         <v>4</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="41">
         <f>HEX2DEC(O9)</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="45">
+      <c r="C10" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>8</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <f>HEX2DEC(D10)</f>
         <v>8</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="42">
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41">
+        <f>HEX2DEC(G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="40">
         <v>8</v>
       </c>
-      <c r="H10" s="43">
-        <f>HEX2DEC(G10)</f>
-        <v>8</v>
-      </c>
-      <c r="I10" s="42">
-        <v>8</v>
-      </c>
-      <c r="J10" s="43">
+      <c r="J10" s="41">
         <f>HEX2DEC(I10)</f>
         <v>8</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <v>8</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="41">
         <f>HEX2DEC(K10)</f>
         <v>8</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43">
+      <c r="M10" s="40"/>
+      <c r="N10" s="41">
         <f>HEX2DEC(M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43">
+      <c r="O10" s="40"/>
+      <c r="P10" s="41">
         <f>HEX2DEC(O10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="44">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="47">
+      <c r="C11" t="s" s="45">
         <v>24</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="40">
         <v>10</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <f>HEX2DEC(D11)</f>
         <v>16</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43">
+      <c r="F11" s="42"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41">
         <f>HEX2DEC(G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="40">
         <v>10</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="41">
         <f>HEX2DEC(I11)</f>
         <v>16</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="40">
         <v>10</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="41">
         <f>HEX2DEC(K11)</f>
         <v>16</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="43">
+      <c r="M11" s="46"/>
+      <c r="N11" s="41">
         <f>HEX2DEC(M11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43">
+      <c r="O11" s="40"/>
+      <c r="P11" s="41">
         <f>HEX2DEC(O11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="17.65" customHeight="1">
-      <c r="A12" s="39">
+      <c r="A12" s="37">
         <v>5</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="38">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="45">
+      <c r="C12" t="s" s="43">
         <v>25</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="40">
         <v>20</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <f>HEX2DEC(D12)</f>
         <v>32</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42">
+      <c r="F12" s="42"/>
+      <c r="G12" s="40">
         <v>20</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="41">
         <f>HEX2DEC(G12)</f>
         <v>32</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="40">
         <v>20</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="41">
         <f>HEX2DEC(I12)</f>
         <v>32</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="40">
         <v>20</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="41">
         <f>HEX2DEC(K12)</f>
         <v>32</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="40">
         <v>20</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="41">
         <f>HEX2DEC(M12)</f>
         <v>32</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="40">
         <v>20</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="41">
         <f>HEX2DEC(O12)</f>
         <v>32</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" s="39">
+      <c r="A13" s="37">
         <v>6</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="45">
+      <c r="C13" t="s" s="43">
         <v>26</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="40">
         <v>40</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f>HEX2DEC(D13)</f>
         <v>64</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="42">
+      <c r="F13" s="42"/>
+      <c r="G13" s="40">
         <v>40</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="41">
         <f>HEX2DEC(G13)</f>
         <v>64</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="40">
         <v>40</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="41">
         <f>HEX2DEC(I13)</f>
         <v>64</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <v>40</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="41">
         <f>HEX2DEC(K13)</f>
         <v>64</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="40">
         <v>40</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="41">
         <f>HEX2DEC(M13)</f>
         <v>64</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="40">
         <v>40</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="41">
         <f>HEX2DEC(O13)</f>
         <v>64</v>
       </c>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="39">
+      <c r="A14" s="37">
         <v>7</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <v>80</v>
       </c>
-      <c r="C14" t="s" s="41">
+      <c r="C14" t="s" s="39">
         <v>27</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43">
+      <c r="D14" s="40"/>
+      <c r="E14" s="41">
         <f>HEX2DEC(D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="42">
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41">
+        <f>HEX2DEC(G14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
         <v>80</v>
       </c>
-      <c r="H14" s="43">
-        <f>HEX2DEC(G14)</f>
-        <v>128</v>
-      </c>
-      <c r="I14" s="42">
-        <v>80</v>
-      </c>
-      <c r="J14" s="43">
+      <c r="J14" s="41">
         <f>HEX2DEC(I14)</f>
         <v>128</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="40">
         <v>80</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="41">
         <f>HEX2DEC(K14)</f>
         <v>128</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43">
+      <c r="M14" s="40"/>
+      <c r="N14" s="41">
         <f>HEX2DEC(M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50">
+      <c r="O14" s="47"/>
+      <c r="P14" s="48">
         <f>HEX2DEC(O14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" s="39">
+      <c r="A15" s="37">
         <v>8</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <v>100</v>
       </c>
-      <c r="C15" t="s" s="45">
+      <c r="C15" t="s" s="43">
         <v>28</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43">
+      <c r="D15" s="40"/>
+      <c r="E15" s="41">
         <f>HEX2DEC(D15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="42">
+      <c r="F15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41">
+        <f>HEX2DEC(G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="40">
         <v>100</v>
       </c>
-      <c r="H15" s="43">
-        <f>HEX2DEC(G15)</f>
-        <v>256</v>
-      </c>
-      <c r="I15" s="42">
-        <v>100</v>
-      </c>
-      <c r="J15" s="43">
+      <c r="J15" s="41">
         <f>HEX2DEC(I15)</f>
         <v>256</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="40">
         <v>100</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="41">
         <f>HEX2DEC(K15)</f>
         <v>256</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50">
+      <c r="M15" s="47"/>
+      <c r="N15" s="48">
         <f>HEX2DEC(M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" ht="17.65" customHeight="1">
-      <c r="A16" s="39">
+      <c r="A16" s="37">
         <v>9</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="38">
         <v>200</v>
       </c>
-      <c r="C16" t="s" s="45">
+      <c r="C16" t="s" s="43">
         <v>29</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="40">
         <v>200</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <f>HEX2DEC(D16)</f>
         <v>512</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="42">
+      <c r="F16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41">
+        <f>HEX2DEC(G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="40">
         <v>200</v>
       </c>
-      <c r="H16" s="43">
-        <f>HEX2DEC(G16)</f>
-        <v>512</v>
-      </c>
-      <c r="I16" s="42">
-        <v>200</v>
-      </c>
-      <c r="J16" s="43">
+      <c r="J16" s="41">
         <f>HEX2DEC(I16)</f>
         <v>512</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="47">
         <v>200</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="48">
         <f>HEX2DEC(K16)</f>
         <v>512</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" ht="17.65" customHeight="1">
-      <c r="A17" s="39">
+      <c r="A17" s="37">
         <v>10</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="38">
         <v>400</v>
       </c>
-      <c r="C17" t="s" s="45">
+      <c r="C17" t="s" s="43">
         <v>30</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43">
+      <c r="D17" s="40"/>
+      <c r="E17" s="41">
         <f>HEX2DEC(D17)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="42">
+      <c r="F17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41">
+        <f>HEX2DEC(G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
         <v>400</v>
       </c>
-      <c r="H17" s="43">
-        <f>HEX2DEC(G17)</f>
-        <v>1024</v>
-      </c>
-      <c r="I17" s="49">
-        <v>400</v>
-      </c>
-      <c r="J17" s="50">
+      <c r="J17" s="48">
         <f>HEX2DEC(I17)</f>
         <v>1024</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" ht="17.65" customHeight="1">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>11</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="62">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="65">
+      <c r="C18" t="s" s="63">
         <v>31</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50">
+      <c r="D18" s="47"/>
+      <c r="E18" s="48">
         <f>HEX2DEC(D18)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50">
+      <c r="F18" s="42"/>
+      <c r="G18" s="47">
+        <v>800</v>
+      </c>
+      <c r="H18" s="48">
         <f>HEX2DEC(G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67"/>
+        <v>2048</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="76">
+      <c r="A20" t="s" s="74">
         <v>32</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" t="s" s="78">
+      <c r="B20" s="75"/>
+      <c r="C20" t="s" s="76">
         <v>33</v>
       </c>
-      <c r="D20" t="s" s="79">
+      <c r="D20" t="s" s="77">
         <f>"0x"&amp;DEC2HEX(D21,3)</f>
         <v>34</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="78">
         <f>SUM(E7:E18)</f>
         <v>639</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" t="s" s="82">
+      <c r="F20" s="79"/>
+      <c r="G20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(G21,3)</f>
         <v>35</v>
       </c>
-      <c r="H20" s="80">
+      <c r="H20" s="78">
         <f>SUM(H7:H18)</f>
-        <v>2031</v>
-      </c>
-      <c r="I20" t="s" s="82">
+        <v>2151</v>
+      </c>
+      <c r="I20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(I21,3)</f>
         <v>36</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="78">
         <f>SUM(J7:J18)</f>
         <v>2047</v>
       </c>
-      <c r="K20" t="s" s="82">
+      <c r="K20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(K21,3)</f>
         <v>37</v>
       </c>
-      <c r="L20" s="80">
+      <c r="L20" s="78">
         <f>SUM(L7:L18)</f>
         <v>1023</v>
       </c>
-      <c r="M20" t="s" s="82">
+      <c r="M20" t="s" s="80">
         <f>"0x"&amp;DEC2HEX(M21,3)</f>
         <v>38</v>
       </c>
-      <c r="N20" s="80">
+      <c r="N20" s="78">
         <f>SUM(N7:N15)</f>
         <v>103</v>
       </c>
-      <c r="O20" t="s" s="83">
+      <c r="O20" t="s" s="81">
         <f>"0x"&amp;DEC2HEX(O21,3)</f>
         <v>38</v>
       </c>
-      <c r="P20" s="84">
+      <c r="P20" s="82">
         <f>SUM(P7:P14)</f>
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" t="s" s="86">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" t="s" s="84">
         <v>39</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="85">
         <f>DEC2HEX(E20,8)</f>
         <v>639</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90">
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88">
         <f>DEC2HEX(H20,8)</f>
-        <v>2031</v>
-      </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="90">
+        <v>2151</v>
+      </c>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88">
         <f>DEC2HEX(J20,8)</f>
         <v>2047</v>
       </c>
-      <c r="J21" s="91"/>
-      <c r="K21" s="90">
+      <c r="J21" s="89"/>
+      <c r="K21" s="88">
         <f>DEC2HEX(L20,8)</f>
         <v>1023</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="90">
+      <c r="L21" s="89"/>
+      <c r="M21" s="88">
         <f>DEC2HEX(N20,8)</f>
         <v>103</v>
       </c>
-      <c r="N21" s="91"/>
-      <c r="O21" s="90">
+      <c r="N21" s="89"/>
+      <c r="O21" s="88">
         <f>DEC2HEX(P20,8)</f>
         <v>103</v>
       </c>
-      <c r="P21" s="92"/>
+      <c r="P21" s="86"/>
     </row>
     <row r="22" ht="17.65" customHeight="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" t="s" s="94">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" t="s" s="91">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="95">
+      <c r="D22" t="s" s="92">
         <v>41</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" t="s" s="98">
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" t="s" s="95">
         <v>42</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" t="s" s="98">
+      <c r="H22" s="96"/>
+      <c r="I22" t="s" s="95">
         <v>43</v>
       </c>
-      <c r="J22" s="99"/>
-      <c r="K22" t="s" s="98">
+      <c r="J22" s="96"/>
+      <c r="K22" t="s" s="95">
         <v>44</v>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" t="s" s="100">
+      <c r="L22" s="96"/>
+      <c r="M22" t="s" s="97">
         <v>45</v>
       </c>
-      <c r="N22" s="101"/>
-      <c r="O22" t="s" s="100">
+      <c r="N22" s="98"/>
+      <c r="O22" t="s" s="97">
         <v>45</v>
       </c>
-      <c r="P22" s="102"/>
+      <c r="P22" s="93"/>
     </row>
     <row r="23" ht="17.65" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
     </row>
     <row r="24" ht="17.65" customHeight="1">
-      <c r="A24" t="s" s="76">
+      <c r="A24" t="s" s="74">
         <v>46</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" t="s" s="108">
+      <c r="B24" s="104"/>
+      <c r="C24" t="s" s="105">
         <v>47</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" t="s" s="112">
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" t="s" s="109">
         <v>48</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" t="s" s="112">
+      <c r="H24" s="110"/>
+      <c r="I24" t="s" s="109">
         <v>48</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" t="s" s="112">
+      <c r="J24" s="110"/>
+      <c r="K24" t="s" s="109">
         <v>48</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" t="s" s="112">
+      <c r="L24" s="110"/>
+      <c r="M24" t="s" s="109">
         <v>48</v>
       </c>
-      <c r="N24" s="113"/>
-      <c r="O24" t="s" s="114">
+      <c r="N24" s="110"/>
+      <c r="O24" t="s" s="111">
         <v>48</v>
       </c>
-      <c r="P24" s="115"/>
+      <c r="P24" s="112"/>
     </row>
     <row r="25" ht="17.65" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" t="s" s="116">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" t="s" s="113">
         <v>49</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="119"/>
-      <c r="G25" t="s" s="112">
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" t="s" s="109">
         <v>50</v>
       </c>
-      <c r="H25" s="120"/>
-      <c r="I25" t="s" s="112">
+      <c r="H25" s="117"/>
+      <c r="I25" t="s" s="109">
         <v>50</v>
       </c>
-      <c r="J25" s="120"/>
-      <c r="K25" t="s" s="112">
+      <c r="J25" s="117"/>
+      <c r="K25" t="s" s="109">
         <v>50</v>
       </c>
-      <c r="L25" s="120"/>
-      <c r="M25" t="s" s="112">
+      <c r="L25" s="117"/>
+      <c r="M25" t="s" s="109">
         <v>50</v>
       </c>
-      <c r="N25" s="120"/>
-      <c r="O25" t="s" s="114">
+      <c r="N25" s="117"/>
+      <c r="O25" t="s" s="111">
         <v>50</v>
       </c>
-      <c r="P25" s="115"/>
+      <c r="P25" s="112"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" t="s" s="121">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" t="s" s="118">
         <v>51</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" t="s" s="112">
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" t="s" s="109">
         <v>52</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" t="s" s="112">
+      <c r="H26" s="117"/>
+      <c r="I26" t="s" s="109">
         <v>43</v>
       </c>
-      <c r="J26" s="120"/>
-      <c r="K26" t="s" s="112">
+      <c r="J26" s="117"/>
+      <c r="K26" t="s" s="109">
         <v>44</v>
       </c>
-      <c r="L26" s="120"/>
-      <c r="M26" t="s" s="112">
+      <c r="L26" s="117"/>
+      <c r="M26" t="s" s="109">
         <v>53</v>
       </c>
-      <c r="N26" s="120"/>
-      <c r="O26" t="s" s="114">
+      <c r="N26" s="117"/>
+      <c r="O26" t="s" s="111">
         <v>54</v>
       </c>
-      <c r="P26" s="115"/>
+      <c r="P26" s="112"/>
     </row>
     <row r="27" ht="17.65" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" t="s" s="122">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" t="s" s="119">
         <v>55</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" t="s" s="126">
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" t="s" s="123">
         <v>42</v>
       </c>
-      <c r="H27" s="127"/>
-      <c r="I27" t="s" s="126">
+      <c r="H27" t="s" s="124">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s" s="123">
         <v>43</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="K27" t="s" s="126">
+      <c r="J27" s="125"/>
+      <c r="K27" t="s" s="123">
         <v>44</v>
       </c>
-      <c r="L27" s="127"/>
-      <c r="M27" t="s" s="126">
+      <c r="L27" s="125"/>
+      <c r="M27" t="s" s="123">
         <v>45</v>
       </c>
-      <c r="N27" s="127"/>
-      <c r="O27" t="s" s="128">
+      <c r="N27" s="125"/>
+      <c r="O27" t="s" s="126">
         <v>45</v>
       </c>
-      <c r="P27" s="115"/>
-    </row>
-    <row r="28" ht="16.6" customHeight="1">
-      <c r="A28" s="129"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="132"/>
-    </row>
-    <row r="29" ht="16.6" customHeight="1">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="132"/>
-    </row>
-    <row r="30" ht="16.6" customHeight="1">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="132"/>
-    </row>
-    <row r="31" ht="16.6" customHeight="1">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="132"/>
-    </row>
-    <row r="32" ht="16.6" customHeight="1">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="132"/>
-    </row>
-    <row r="33" ht="16.6" customHeight="1">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="132"/>
-    </row>
-    <row r="34" ht="16.6" customHeight="1">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="134"/>
-      <c r="P34" s="132"/>
-    </row>
-    <row r="35" ht="16.6" customHeight="1">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
-      <c r="N35" s="134"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="132"/>
-    </row>
-    <row r="36" ht="16.6" customHeight="1">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="132"/>
-    </row>
-    <row r="37" ht="16.6" customHeight="1">
-      <c r="A37" s="133"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="132"/>
-    </row>
-    <row r="38" ht="16.6" customHeight="1">
-      <c r="A38" s="133"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="132"/>
-    </row>
-    <row r="39" ht="16.6" customHeight="1">
-      <c r="A39" s="133"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="132"/>
-    </row>
-    <row r="40" ht="16.6" customHeight="1">
-      <c r="A40" s="133"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="134"/>
-      <c r="P40" s="132"/>
-    </row>
-    <row r="41" ht="16.6" customHeight="1">
-      <c r="A41" s="133"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="134"/>
-      <c r="P41" s="132"/>
-    </row>
-    <row r="42" ht="16.6" customHeight="1">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="132"/>
-    </row>
-    <row r="43" ht="16.6" customHeight="1">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="132"/>
-    </row>
-    <row r="44" ht="16.6" customHeight="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="134"/>
-      <c r="P44" s="132"/>
-    </row>
-    <row r="45" ht="16.6" customHeight="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="132"/>
-    </row>
-    <row r="46" ht="16.6" customHeight="1">
-      <c r="A46" s="133"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="132"/>
-    </row>
-    <row r="47" ht="16.6" customHeight="1">
-      <c r="A47" s="133"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="134"/>
-      <c r="O47" s="134"/>
-      <c r="P47" s="132"/>
-    </row>
-    <row r="48" ht="16.6" customHeight="1">
-      <c r="A48" s="133"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
-      <c r="N48" s="134"/>
-      <c r="O48" s="134"/>
-      <c r="P48" s="132"/>
-    </row>
-    <row r="49" ht="16.6" customHeight="1">
-      <c r="A49" s="133"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="132"/>
-    </row>
-    <row r="50" ht="16.6" customHeight="1">
-      <c r="A50" s="133"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
-      <c r="N50" s="134"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="132"/>
-    </row>
-    <row r="51" ht="16.6" customHeight="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
-      <c r="P51" s="132"/>
-    </row>
-    <row r="52" ht="16.6" customHeight="1">
-      <c r="A52" s="133"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
-      <c r="O52" s="134"/>
-      <c r="P52" s="132"/>
-    </row>
-    <row r="53" ht="16.6" customHeight="1">
-      <c r="A53" s="133"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="134"/>
-      <c r="P53" s="132"/>
-    </row>
-    <row r="54" ht="16.6" customHeight="1">
-      <c r="A54" s="133"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="132"/>
-    </row>
-    <row r="55" ht="16.6" customHeight="1">
-      <c r="A55" s="133"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134"/>
-      <c r="P55" s="132"/>
-    </row>
-    <row r="56" ht="16.6" customHeight="1">
-      <c r="A56" s="133"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
-      <c r="N56" s="134"/>
-      <c r="O56" s="134"/>
-      <c r="P56" s="132"/>
-    </row>
-    <row r="57" ht="16.6" customHeight="1">
-      <c r="A57" s="133"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
-      <c r="P57" s="132"/>
-    </row>
-    <row r="58" ht="16.6" customHeight="1">
-      <c r="A58" s="133"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="134"/>
-      <c r="P58" s="132"/>
-    </row>
-    <row r="59" ht="16.6" customHeight="1">
-      <c r="A59" s="133"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="132"/>
-    </row>
-    <row r="60" ht="16.6" customHeight="1">
-      <c r="A60" s="133"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="134"/>
-      <c r="P60" s="132"/>
-    </row>
-    <row r="61" ht="16.6" customHeight="1">
-      <c r="A61" s="135"/>
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="124"/>
-      <c r="P61" s="136"/>
+      <c r="P27" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -8798,10 +8339,11 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G3:P3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A24:B27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -8814,292 +8356,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="137" customWidth="1"/>
-    <col min="2" max="2" width="6.85156" style="137" customWidth="1"/>
-    <col min="3" max="3" width="33" style="137" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="137" customWidth="1"/>
-    <col min="5" max="5" width="88.8516" style="137" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="137" customWidth="1"/>
+    <col min="1" max="1" width="10.4844" style="127" customWidth="1"/>
+    <col min="2" max="2" width="6.79688" style="127" customWidth="1"/>
+    <col min="3" max="3" width="33" style="127" customWidth="1"/>
+    <col min="4" max="4" width="7.57031" style="127" customWidth="1"/>
+    <col min="5" max="5" width="88.8906" style="127" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="127" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="138">
+      <c r="A1" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="140"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="144"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="145">
+      <c r="A3" t="s" s="132">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="146">
+      <c r="B3" t="s" s="133">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="147">
+      <c r="C3" t="s" s="134">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="147">
+      <c r="D3" t="s" s="134">
         <v>59</v>
       </c>
-      <c r="E3" t="s" s="147">
+      <c r="E3" t="s" s="134">
         <v>60</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="151"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="138"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="152">
+      <c r="A5" s="139">
         <v>1</v>
       </c>
-      <c r="B5" s="152">
+      <c r="B5" s="139">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="153">
+      <c r="C5" t="s" s="140">
         <v>61</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="141">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="155">
+      <c r="E5" t="s" s="142">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="152">
+      <c r="A6" s="139">
         <v>2</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" t="s" s="153">
+      <c r="B6" s="139">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="140">
         <v>63</v>
       </c>
-      <c r="D6" s="154">
+      <c r="D6" s="141">
         <f>HEX2DEC(B6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="155">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s" s="142">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="152">
+      <c r="A7" s="139">
         <v>4</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" t="s" s="153">
+      <c r="B7" s="139"/>
+      <c r="C7" t="s" s="140">
         <v>65</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="141">
         <f>HEX2DEC(B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="155">
+      <c r="E7" t="s" s="142">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="152">
+      <c r="A8" s="139">
         <v>8</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" t="s" s="153">
+      <c r="B8" s="139"/>
+      <c r="C8" t="s" s="140">
         <v>67</v>
       </c>
-      <c r="D8" s="154">
+      <c r="D8" s="141">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" t="s" s="155">
+      <c r="E8" t="s" s="142">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="152">
+      <c r="A9" s="139">
         <v>10</v>
       </c>
-      <c r="B9" s="152">
+      <c r="B9" s="139">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="153">
+      <c r="C9" t="s" s="140">
         <v>69</v>
       </c>
-      <c r="D9" s="154">
+      <c r="D9" s="141">
         <f>HEX2DEC(B9)</f>
         <v>16</v>
       </c>
-      <c r="E9" t="s" s="155">
+      <c r="E9" t="s" s="142">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="152">
+      <c r="A10" s="139">
         <v>20</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" t="s" s="153">
+      <c r="B10" s="139"/>
+      <c r="C10" t="s" s="140">
         <v>71</v>
       </c>
-      <c r="D10" s="154">
+      <c r="D10" s="141">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="155">
+      <c r="E10" t="s" s="142">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="152">
+      <c r="A11" s="139">
         <v>40</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" t="s" s="153">
+      <c r="B11" s="139"/>
+      <c r="C11" t="s" s="140">
         <v>73</v>
       </c>
-      <c r="D11" s="154">
+      <c r="D11" s="141">
         <f>HEX2DEC(B11)</f>
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="155">
+      <c r="E11" t="s" s="142">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="152">
+      <c r="A12" s="139">
         <v>80</v>
       </c>
-      <c r="B12" s="152">
+      <c r="B12" s="139">
         <v>80</v>
       </c>
-      <c r="C12" t="s" s="153">
+      <c r="C12" t="s" s="140">
         <v>75</v>
       </c>
-      <c r="D12" s="154">
+      <c r="D12" s="141">
         <f>HEX2DEC(B12)</f>
         <v>128</v>
       </c>
-      <c r="E12" t="s" s="156">
+      <c r="E12" t="s" s="143">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="17.65" customHeight="1">
-      <c r="A13" t="s" s="157">
+      <c r="A13" t="s" s="144">
         <v>77</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159">
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="146">
         <f>SUM(D5:D12)</f>
+        <v>147</v>
+      </c>
+      <c r="E13" s="147"/>
+    </row>
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" s="148"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" t="s" s="153">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s" s="154">
+        <v>78</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156">
+        <v>17</v>
+      </c>
+      <c r="E15" s="157"/>
+    </row>
+    <row r="16" ht="16.65" customHeight="1">
+      <c r="A16" s="158"/>
+      <c r="B16" t="s" s="159">
+        <v>79</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161">
         <v>145</v>
       </c>
-      <c r="E13" s="160"/>
-    </row>
-    <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165"/>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" t="s" s="166">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="167">
-        <v>78</v>
-      </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169">
-        <v>17</v>
-      </c>
-      <c r="E15" s="170"/>
-    </row>
-    <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="171"/>
-      <c r="B16" t="s" s="172">
-        <v>79</v>
-      </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174">
-        <v>145</v>
-      </c>
-      <c r="E16" s="175"/>
-    </row>
-    <row r="17" ht="16.6" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="132"/>
-    </row>
-    <row r="18" ht="16.6" customHeight="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="132"/>
-    </row>
-    <row r="19" ht="16.6" customHeight="1">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="132"/>
-    </row>
-    <row r="20" ht="16.6" customHeight="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="132"/>
-    </row>
-    <row r="21" ht="16.6" customHeight="1">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="132"/>
-    </row>
-    <row r="22" ht="16.6" customHeight="1">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="132"/>
-    </row>
-    <row r="23" ht="16.6" customHeight="1">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="132"/>
-    </row>
-    <row r="24" ht="16.6" customHeight="1">
-      <c r="A24" s="135"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="136"/>
+      <c r="E16" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9120,430 +8608,358 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="178" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="178" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="178" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="178" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="178" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="163" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="163" customWidth="1"/>
+    <col min="4" max="4" width="10.6484" style="163" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="163" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.15" customHeight="1">
-      <c r="A2" s="180"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="132"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="166"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="184">
+      <c r="A3" t="s" s="167">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="184">
+      <c r="B3" t="s" s="167">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="184">
+      <c r="C3" t="s" s="167">
         <v>81</v>
       </c>
-      <c r="D3" t="s" s="184">
+      <c r="D3" t="s" s="167">
         <v>59</v>
       </c>
-      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="185"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="189">
+      <c r="A5" s="171">
         <v>1</v>
       </c>
-      <c r="B5" s="189">
+      <c r="B5" s="171">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="190">
+      <c r="C5" t="s" s="172">
         <v>82</v>
       </c>
-      <c r="D5" s="191">
+      <c r="D5" s="173">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="185"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="189">
+      <c r="A6" s="171">
         <v>2</v>
       </c>
-      <c r="B6" s="189">
+      <c r="B6" s="171">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="190">
+      <c r="C6" t="s" s="172">
         <v>83</v>
       </c>
-      <c r="D6" s="191">
+      <c r="D6" s="173">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="185"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="189"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="185"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="189">
+      <c r="A8" s="171">
         <v>100</v>
       </c>
-      <c r="B8" s="189">
+      <c r="B8" s="171">
         <v>100</v>
       </c>
-      <c r="C8" t="s" s="190">
+      <c r="C8" t="s" s="172">
         <v>84</v>
       </c>
-      <c r="D8" s="191">
+      <c r="D8" s="173">
         <f>HEX2DEC(B8)</f>
         <v>256</v>
       </c>
-      <c r="E8" s="185"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="189">
+      <c r="A9" s="171">
         <v>200</v>
       </c>
-      <c r="B9" s="189">
+      <c r="B9" s="171">
         <v>200</v>
       </c>
-      <c r="C9" t="s" s="190">
+      <c r="C9" t="s" s="172">
         <v>85</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="173">
         <f>HEX2DEC(B9)</f>
         <v>512</v>
       </c>
-      <c r="E9" s="185"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="189">
+      <c r="A10" s="171">
         <v>400</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" t="s" s="190">
+      <c r="B10" s="171"/>
+      <c r="C10" t="s" s="172">
         <v>86</v>
       </c>
-      <c r="D10" s="191">
+      <c r="D10" s="173">
         <f>HEX2DEC(B10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="185"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="189">
+      <c r="A11" s="171">
         <v>800</v>
       </c>
-      <c r="B11" s="189">
+      <c r="B11" s="171">
         <v>800</v>
       </c>
-      <c r="C11" t="s" s="190">
+      <c r="C11" t="s" s="172">
         <v>87</v>
       </c>
-      <c r="D11" s="191">
+      <c r="D11" s="173">
         <f>HEX2DEC(B11)</f>
         <v>2048</v>
       </c>
-      <c r="E11" s="185"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="189">
+      <c r="A12" s="171">
         <v>1000</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" t="s" s="190">
+      <c r="B12" s="171"/>
+      <c r="C12" t="s" s="172">
         <v>88</v>
       </c>
-      <c r="D12" s="191">
+      <c r="D12" s="173">
         <f>HEX2DEC(B12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="185"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="189">
+      <c r="A13" s="171">
         <v>2000</v>
       </c>
-      <c r="B13" s="189"/>
-      <c r="C13" t="s" s="190">
+      <c r="B13" s="171"/>
+      <c r="C13" t="s" s="172">
         <v>89</v>
       </c>
-      <c r="D13" s="191">
+      <c r="D13" s="173">
         <f>HEX2DEC(B13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="185"/>
     </row>
     <row r="14" ht="16.65" customHeight="1">
-      <c r="A14" s="189">
+      <c r="A14" s="171">
         <v>4000</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" t="s" s="190">
+      <c r="B14" s="171"/>
+      <c r="C14" t="s" s="172">
         <v>90</v>
       </c>
-      <c r="D14" s="191">
+      <c r="D14" s="173">
         <f>HEX2DEC(B14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="185"/>
     </row>
     <row r="15" ht="16.65" customHeight="1">
-      <c r="A15" s="189"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="185"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="170"/>
     </row>
     <row r="16" ht="16.65" customHeight="1">
-      <c r="A16" s="189">
+      <c r="A16" s="171">
         <v>10000</v>
       </c>
-      <c r="B16" s="189">
+      <c r="B16" s="171">
         <v>10000</v>
       </c>
-      <c r="C16" t="s" s="190">
+      <c r="C16" t="s" s="172">
         <v>91</v>
       </c>
-      <c r="D16" s="191">
+      <c r="D16" s="173">
         <f>HEX2DEC(B16)</f>
         <v>65536</v>
       </c>
-      <c r="E16" s="185"/>
     </row>
     <row r="17" ht="16.65" customHeight="1">
-      <c r="A17" s="189">
+      <c r="A17" s="171">
         <v>20000</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" t="s" s="190">
+      <c r="B17" s="171"/>
+      <c r="C17" t="s" s="172">
         <v>92</v>
       </c>
-      <c r="D17" s="191">
+      <c r="D17" s="173">
         <f>HEX2DEC(B17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="185"/>
     </row>
     <row r="18" ht="16.65" customHeight="1">
-      <c r="A18" s="189">
+      <c r="A18" s="171">
         <v>40000</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" t="s" s="190">
+      <c r="B18" s="171"/>
+      <c r="C18" t="s" s="172">
         <v>93</v>
       </c>
-      <c r="D18" s="191">
+      <c r="D18" s="173">
         <f>HEX2DEC(B18)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="185"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="189">
+      <c r="A19" s="171">
         <v>80000</v>
       </c>
-      <c r="B19" s="189">
+      <c r="B19" s="171">
         <v>80000</v>
       </c>
-      <c r="C19" t="s" s="190">
+      <c r="C19" t="s" s="172">
         <v>94</v>
       </c>
-      <c r="D19" s="191">
+      <c r="D19" s="173">
         <f>HEX2DEC(B19)</f>
         <v>524288</v>
       </c>
-      <c r="E19" s="185"/>
     </row>
     <row r="20" ht="16.65" customHeight="1">
-      <c r="A20" s="189">
+      <c r="A20" s="171">
         <v>100000</v>
       </c>
-      <c r="B20" s="189"/>
-      <c r="C20" t="s" s="190">
+      <c r="B20" s="171"/>
+      <c r="C20" t="s" s="172">
         <v>95</v>
       </c>
-      <c r="D20" s="191">
+      <c r="D20" s="173">
         <f>HEX2DEC(B20)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="185"/>
     </row>
     <row r="21" ht="16.65" customHeight="1">
-      <c r="A21" s="189">
+      <c r="A21" s="171">
         <v>200000</v>
       </c>
-      <c r="B21" s="189">
+      <c r="B21" s="171">
         <v>200000</v>
       </c>
-      <c r="C21" t="s" s="190">
+      <c r="C21" t="s" s="172">
         <v>96</v>
       </c>
-      <c r="D21" s="191">
+      <c r="D21" s="173">
         <f>HEX2DEC(B21)</f>
         <v>2097152</v>
       </c>
-      <c r="E21" s="185"/>
     </row>
     <row r="22" ht="16.65" customHeight="1">
-      <c r="A22" s="189">
+      <c r="A22" s="171">
         <v>400000</v>
       </c>
-      <c r="B22" s="189"/>
-      <c r="C22" t="s" s="190">
+      <c r="B22" s="171"/>
+      <c r="C22" t="s" s="172">
         <v>97</v>
       </c>
-      <c r="D22" s="191">
+      <c r="D22" s="173">
         <f>HEX2DEC(B22)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="185"/>
     </row>
     <row r="23" ht="16.65" customHeight="1">
-      <c r="A23" s="189">
+      <c r="A23" s="171">
         <v>800000</v>
       </c>
-      <c r="B23" s="189"/>
-      <c r="C23" t="s" s="190">
+      <c r="B23" s="171"/>
+      <c r="C23" t="s" s="172">
         <v>98</v>
       </c>
-      <c r="D23" s="191">
+      <c r="D23" s="173">
         <f>HEX2DEC(B23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="185"/>
     </row>
     <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="189">
+      <c r="A24" s="171">
         <v>1000000</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" t="s" s="190">
+      <c r="B24" s="171"/>
+      <c r="C24" t="s" s="172">
         <v>99</v>
       </c>
-      <c r="D24" s="191">
+      <c r="D24" s="173">
         <f>HEX2DEC(B24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="185"/>
     </row>
     <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="189"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="185"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="170"/>
     </row>
     <row r="26" ht="17.65" customHeight="1">
-      <c r="A26" t="s" s="157">
+      <c r="A26" t="s" s="144">
         <v>100</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="193">
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="175">
         <f>SUM(D5:D24)</f>
         <v>2689795</v>
       </c>
-      <c r="E26" s="185"/>
     </row>
     <row r="27" ht="16.65" customHeight="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="132"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="178"/>
     </row>
     <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="197">
+      <c r="A28" t="s" s="179">
         <v>101</v>
       </c>
-      <c r="B28" t="s" s="198">
+      <c r="B28" t="s" s="180">
         <v>78</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="199">
+      <c r="C28" s="155"/>
+      <c r="D28" s="181">
         <v>17760515</v>
       </c>
-      <c r="E28" s="185"/>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="200"/>
-      <c r="B29" t="s" s="201">
+      <c r="A29" s="182"/>
+      <c r="B29" t="s" s="183">
         <v>102</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="202">
+      <c r="C29" s="33"/>
+      <c r="D29" s="184">
         <v>0</v>
       </c>
-      <c r="E29" s="185"/>
-    </row>
-    <row r="30" ht="16.6" customHeight="1">
-      <c r="A30" s="203"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="132"/>
-    </row>
-    <row r="31" ht="16.6" customHeight="1">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="132"/>
-    </row>
-    <row r="32" ht="16.6" customHeight="1">
-      <c r="A32" s="133"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="132"/>
-    </row>
-    <row r="33" ht="16.6" customHeight="1">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="132"/>
-    </row>
-    <row r="34" ht="16.6" customHeight="1">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="132"/>
-    </row>
-    <row r="35" ht="16.6" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9564,201 +8980,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="205" customWidth="1"/>
-    <col min="2" max="2" width="7" style="205" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="205" customWidth="1"/>
-    <col min="4" max="4" width="8" style="205" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="205" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="205" customWidth="1"/>
+    <col min="1" max="1" width="10.6719" style="185" customWidth="1"/>
+    <col min="2" max="2" width="7.04688" style="185" customWidth="1"/>
+    <col min="3" max="3" width="40.1719" style="185" customWidth="1"/>
+    <col min="4" max="4" width="8.07031" style="185" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="185" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="138">
+      <c r="A1" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="206"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="146">
+      <c r="A3" t="s" s="133">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="146">
+      <c r="B3" t="s" s="133">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="147">
+      <c r="C3" t="s" s="134">
         <v>104</v>
       </c>
-      <c r="D3" t="s" s="147">
+      <c r="D3" t="s" s="134">
         <v>59</v>
       </c>
-      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="185"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="136"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="152">
+      <c r="A5" s="139">
         <v>1</v>
       </c>
-      <c r="B5" s="152">
+      <c r="B5" s="139">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="153">
+      <c r="C5" t="s" s="140">
         <v>105</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="141">
         <f>HEX2DEC(B5)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="185"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="152">
+      <c r="A6" s="139">
         <v>2</v>
       </c>
-      <c r="B6" s="152">
+      <c r="B6" s="139">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="153">
+      <c r="C6" t="s" s="140">
         <v>106</v>
       </c>
-      <c r="D6" s="154">
+      <c r="D6" s="141">
         <f>HEX2DEC(B6)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="185"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="152">
+      <c r="A7" s="139">
         <v>4</v>
       </c>
-      <c r="B7" s="152">
+      <c r="B7" s="139">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="153">
+      <c r="C7" t="s" s="140">
         <v>107</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="141">
         <f>HEX2DEC(B7)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="185"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="152">
+      <c r="A8" s="139">
         <v>8</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" t="s" s="153">
+      <c r="B8" s="139"/>
+      <c r="C8" t="s" s="140">
         <v>108</v>
       </c>
-      <c r="D8" s="154">
+      <c r="D8" s="141">
         <f>HEX2DEC(B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="185"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="185"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="136"/>
     </row>
     <row r="10" ht="17.65" customHeight="1">
-      <c r="A10" t="s" s="207">
+      <c r="A10" t="s" s="186">
         <v>109</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="208">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="187">
         <f>SUM(D5:D8)</f>
         <v>7</v>
       </c>
-      <c r="E10" s="185"/>
-    </row>
-    <row r="11" ht="16.6" customHeight="1">
-      <c r="A11" s="203"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="132"/>
-    </row>
-    <row r="12" ht="16.6" customHeight="1">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="132"/>
-    </row>
-    <row r="13" ht="16.6" customHeight="1">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="132"/>
-    </row>
-    <row r="14" ht="16.6" customHeight="1">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="132"/>
-    </row>
-    <row r="15" ht="16.6" customHeight="1">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="132"/>
-    </row>
-    <row r="16" ht="16.6" customHeight="1">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="132"/>
-    </row>
-    <row r="17" ht="16.6" customHeight="1">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="132"/>
-    </row>
-    <row r="18" ht="16.6" customHeight="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="132"/>
-    </row>
-    <row r="19" ht="16.6" customHeight="1">
-      <c r="A19" s="135"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9776,238 +9118,167 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="209" customWidth="1"/>
-    <col min="2" max="2" width="26" style="209" customWidth="1"/>
-    <col min="3" max="3" width="69.5" style="209" customWidth="1"/>
-    <col min="4" max="4" width="8.17188" style="209" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="209" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="209" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="188" customWidth="1"/>
+    <col min="2" max="2" width="25.9219" style="188" customWidth="1"/>
+    <col min="3" max="3" width="69.5703" style="188" customWidth="1"/>
+    <col min="4" max="4" width="8.10156" style="188" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="188" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" customHeight="1">
-      <c r="A1" t="s" s="138">
+      <c r="A1" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="210"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="206"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="147">
+      <c r="A3" t="s" s="134">
         <v>111</v>
       </c>
-      <c r="B3" t="s" s="147">
+      <c r="B3" t="s" s="134">
         <v>112</v>
       </c>
-      <c r="C3" t="s" s="147">
+      <c r="C3" t="s" s="134">
         <v>113</v>
       </c>
-      <c r="D3" t="s" s="147">
+      <c r="D3" t="s" s="134">
         <v>114</v>
       </c>
-      <c r="E3" s="185"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="213"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="185"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="192"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="215">
+      <c r="A5" s="194">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="216">
+      <c r="B5" t="s" s="195">
         <v>115</v>
       </c>
-      <c r="C5" t="s" s="216">
+      <c r="C5" t="s" s="195">
         <v>116</v>
       </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="185"/>
+      <c r="D5" s="192"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="215">
+      <c r="A6" s="194">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="216">
+      <c r="B6" t="s" s="195">
         <v>117</v>
       </c>
-      <c r="C6" t="s" s="216">
+      <c r="C6" t="s" s="195">
         <v>118</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="185"/>
+      <c r="D6" s="192"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="215">
+      <c r="A7" s="194">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="216">
+      <c r="B7" t="s" s="195">
         <v>119</v>
       </c>
-      <c r="C7" t="s" s="216">
+      <c r="C7" t="s" s="195">
         <v>120</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="185"/>
+      <c r="D7" s="192"/>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="215">
+      <c r="A8" s="194">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="216">
+      <c r="B8" t="s" s="195">
         <v>121</v>
       </c>
-      <c r="C8" t="s" s="216">
+      <c r="C8" t="s" s="195">
         <v>122</v>
       </c>
-      <c r="D8" s="213"/>
-      <c r="E8" s="185"/>
+      <c r="D8" s="192"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="217">
+      <c r="A9" s="196">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="216">
+      <c r="B9" t="s" s="195">
         <v>123</v>
       </c>
-      <c r="C9" t="s" s="216">
+      <c r="C9" t="s" s="195">
         <v>118</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="185"/>
+      <c r="D9" s="192"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="217">
+      <c r="A10" s="196">
         <v>256</v>
       </c>
-      <c r="B10" t="s" s="216">
+      <c r="B10" t="s" s="195">
         <v>124</v>
       </c>
-      <c r="C10" t="s" s="216">
+      <c r="C10" t="s" s="195">
         <v>125</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="185"/>
+      <c r="D10" s="192"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="217">
+      <c r="A11" s="196">
         <v>512</v>
       </c>
-      <c r="B11" t="s" s="216">
+      <c r="B11" t="s" s="195">
         <v>126</v>
       </c>
-      <c r="C11" t="s" s="216">
+      <c r="C11" t="s" s="195">
         <v>127</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="185"/>
+      <c r="D11" s="192"/>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="217">
+      <c r="A12" s="196">
         <v>1024</v>
       </c>
-      <c r="B12" t="s" s="216">
+      <c r="B12" t="s" s="195">
         <v>128</v>
       </c>
-      <c r="C12" t="s" s="216">
+      <c r="C12" t="s" s="195">
         <v>129</v>
       </c>
-      <c r="D12" s="217">
+      <c r="D12" s="196">
         <v>1024</v>
       </c>
-      <c r="E12" s="185"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="213"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="185"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="192"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="219">
+      <c r="A14" t="s" s="198">
         <v>130</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="220">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="199">
         <f>SUM(D5:D12)</f>
         <v>1024</v>
       </c>
-      <c r="E14" s="185"/>
-    </row>
-    <row r="15" ht="16.6" customHeight="1">
-      <c r="A15" s="203"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="132"/>
-    </row>
-    <row r="16" ht="16.6" customHeight="1">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="132"/>
-    </row>
-    <row r="17" ht="16.6" customHeight="1">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="132"/>
-    </row>
-    <row r="18" ht="16.6" customHeight="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="132"/>
-    </row>
-    <row r="19" ht="16.6" customHeight="1">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="132"/>
-    </row>
-    <row r="20" ht="16.6" customHeight="1">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="132"/>
-    </row>
-    <row r="21" ht="16.6" customHeight="1">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="132"/>
-    </row>
-    <row r="22" ht="16.6" customHeight="1">
-      <c r="A22" s="135"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">
